--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955F6D39-974B-4C07-BBCD-6CF9C028272F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BE561EB-9430-4B61-BC05-26BE2E3F1292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,25 +943,22 @@
     <t>Unclear</t>
   </si>
   <si>
+    <t>1066.HK</t>
+  </si>
+  <si>
     <t>威高股份</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>1066.HK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
     <t>C0007</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNY</t>
   </si>
   <si>
     <t>CN</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superior Cycl. </t>
   </si>
 </sst>
 </file>
@@ -982,7 +979,7 @@
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1175,13 +1172,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Microsoft YaHei"/>
-      <family val="1"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1527,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2204,9 +2194,6 @@
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3580,8 +3567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3602,15 +3589,15 @@
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="285" t="s">
-        <v>262</v>
+      <c r="C5" s="192" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3634,7 +3621,7 @@
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E8" s="268"/>
     </row>
@@ -3643,7 +3630,7 @@
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3691,7 +3678,7 @@
         <v>258</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4164,11 +4151,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.726666666666667E-2</v>
+        <v>1.1346414278066272E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.666666666666666E-2</v>
+        <v>1.1163734978419406E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4846,7 +4833,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4899,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.5</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4940,7 +4927,7 @@
       </c>
       <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>20567.845458</v>
+        <v>67553.944528229491</v>
       </c>
       <c r="H5" s="273"/>
       <c r="I5" s="38"/>
@@ -5172,7 +5159,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>6.8021125637922897E-2</v>
+        <v>2.0710085987878393E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5204,7 +5191,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.726666666666667E-2</v>
+        <v>1.1346414278066272E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5234,20 +5221,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.4966218771442903</v>
+        <v>1.9905156057897289</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.7989581365911675</v>
+        <v>3.8261304804965635</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.9372022084050475</v>
+        <v>2.3417830656349752</v>
       </c>
       <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.1730070752966677</v>
+        <v>3.3270699830404902</v>
       </c>
       <c r="H29" s="272"/>
     </row>
@@ -10249,7 +10236,7 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
@@ -12119,17 +12106,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8021125637922897E-2</v>
+        <v>2.0710085987878393E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8021125637922897E-2</v>
+        <v>2.0710085987878393E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8021125637922897E-2</v>
+        <v>2.0710085987878393E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12170,17 +12157,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.726666666666667E-2</v>
+        <v>1.1346414278066272E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.726666666666667E-2</v>
+        <v>1.1346414278066272E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.726666666666667E-2</v>
+        <v>1.1346414278066272E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12240,14 +12227,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>5.9077627730163638</v>
+        <v>4.7101622006306902</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>5.9077627730163638</v>
+        <v>4.7101622006306902</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12265,14 +12252,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.7967437414993745</v>
+        <v>2.4643379282251914</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.7967437414993745</v>
+        <v>2.4643379282251914</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12315,21 +12302,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13424871.355860295</v>
+        <v>10703429.375587031</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.9372022084050475</v>
+        <v>2.3417830656349752</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.9372022084050475</v>
+        <v>2.3417830656349752</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.1730070752966677</v>
+        <v>3.3270699830404902</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12378,27 +12365,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>13424871.355860295</v>
+        <v>10703429.375587031</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.4966218771442903</v>
+        <v>1.9905156057897289</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.9372022084050475</v>
+        <v>2.3417830656349752</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.9372022084050475</v>
+        <v>2.3417830656349752</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.9372022084050475</v>
+        <v>2.3417830656349752</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.1730070752966677</v>
+        <v>3.3270699830404902</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12439,27 +12426,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6355354.1987885954</v>
+        <v>5599991.2208558209</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1819045344348957</v>
+        <v>1.0414297629527391</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3904759228645833</v>
+        <v>1.225211485826752</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3904759228645833</v>
+        <v>1.225211485826752</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3904759228645833</v>
+        <v>1.225211485826752</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9755077970251189</v>
+        <v>1.7407096400986732</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12500,27 +12487,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>9890112.7773244437</v>
+        <v>8151710.2982214261</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.839263205789593</v>
+        <v>1.515972684371234</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.1638390656348152</v>
+        <v>1.7834972757308636</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.1638390656348152</v>
+        <v>1.7834972757308636</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.1638390656348152</v>
+        <v>1.7834972757308636</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.0742574361608934</v>
+        <v>2.5338898115695816</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BE561EB-9430-4B61-BC05-26BE2E3F1292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1387AE0-54C6-4264-AA85-642EEA7117A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -941,6 +938,10 @@
   </si>
   <si>
     <t>Unclear</t>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1066.HK</t>
@@ -1517,7 +1518,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2153,6 +2154,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3567,7 +3571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3581,12 +3585,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>262</v>
@@ -3594,7 +3598,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>263</v>
@@ -3618,7 +3622,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>264</v>
@@ -3627,7 +3631,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>265</v>
@@ -3635,7 +3639,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>4570632324</v>
@@ -3643,7 +3647,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>266</v>
@@ -3667,7 +3671,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3675,7 +3679,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>267</v>
@@ -3692,55 +3696,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3877,7 +3881,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151">
         <v>272971</v>
@@ -4125,7 +4129,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>0.0943+0.0734</f>
@@ -4147,15 +4151,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1346414278066272E-2</v>
+        <v>4.0011617387665649E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.1163734978419406E-2</v>
+        <v>3.9367423190010908E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4196,13 +4200,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4544,7 +4548,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4562,7 +4566,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4570,26 +4574,26 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4598,10 +4602,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4650,7 +4654,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4671,7 +4675,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4689,7 +4693,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4746,7 +4750,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4833,7 +4837,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4874,19 +4878,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>1066.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>4.5</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4894,42 +4898,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>威高股份</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>4570632324</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>67553.944528229491</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>20567.845458</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4952,16 +4956,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4976,7 +4980,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>1.0736569960912068</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4986,40 +4990,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5032,29 +5036,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5064,12 +5068,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5079,7 +5083,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5087,7 +5091,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5101,7 +5105,7 @@
         <v>0.49786034237394394</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5109,7 +5113,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5120,14 +5124,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>6.0164745032668145E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5139,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5155,16 +5159,16 @@
         <v>2.063358175126364E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>2.0710085987878393E-2</v>
+        <v>261</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>13.69274836568964</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5187,11 +5191,11 @@
         <v>0.14100336070836289</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.1346414278066272E-2</v>
+        <v>4.0011617387665649E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5208,12 +5212,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5221,42 +5225,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9905156057897289</v>
+        <v>2.7439815209255798</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.8261304804965635</v>
+        <v>5.2744280449724537</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.3417830656349752</v>
-      </c>
-      <c r="G29" s="272">
+        <v>3.228213554030094</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3270699830404902</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>4.5864591695412642</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5266,7 +5270,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5277,14 +5281,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5294,7 +5298,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5304,14 +5308,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5321,7 +5325,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5336,14 +5340,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6328,16 +6332,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6355,7 +6359,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6388,7 +6392,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6755,7 +6759,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6806,7 +6810,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6857,7 +6861,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6908,7 +6912,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7010,7 +7014,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7163,7 +7167,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8234,7 +8238,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8303,7 +8307,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8507,7 +8511,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10405,7 +10409,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11457,11 +11461,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11472,11 +11476,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11488,11 +11492,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11706,19 +11710,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11728,18 +11732,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11816,7 +11820,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11876,7 +11880,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11939,7 +11943,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11969,7 +11973,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12102,28 +12106,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.0710085987878393E-2</v>
+        <v>7.3031357423154877E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.0710085987878393E-2</v>
+        <v>7.3031357423154877E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.0710085987878393E-2</v>
+        <v>7.3031357423154877E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12153,21 +12157,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1346414278066272E-2</v>
+        <v>4.0011617387665649E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1346414278066272E-2</v>
+        <v>4.0011617387665649E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1346414278066272E-2</v>
+        <v>4.0011617387665649E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12198,15 +12202,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12223,24 +12227,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>4.7101622006306902</v>
+        <v>6.493090534683347</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>4.7101622006306902</v>
+        <v>6.493090534683347</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12248,18 +12252,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.4643379282251914</v>
+        <v>3.0426855884181014</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.4643379282251914</v>
+        <v>3.0426855884181014</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12278,14 +12282,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12302,21 +12306,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>10703429.375587031</v>
+        <v>14754977.218824869</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.3417830656349752</v>
+        <v>3.228213554030094</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.3417830656349752</v>
+        <v>3.228213554030094</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.3270699830404902</v>
+        <v>4.5864591695412642</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12365,27 +12369,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>10703429.375587031</v>
+        <v>14754977.218824869</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.9905156057897289</v>
+        <v>2.7439815209255798</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.3417830656349752</v>
+        <v>3.228213554030094</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.3417830656349752</v>
+        <v>3.228213554030094</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.3417830656349752</v>
+        <v>3.228213554030094</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.3270699830404902</v>
+        <v>4.5864591695412642</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12402,14 +12406,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12426,27 +12430,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>5599991.2208558209</v>
+        <v>6914235.4170709616</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.0414297629527391</v>
+        <v>1.2858396142805375</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.225211485826752</v>
+        <v>1.5127524873888678</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.225211485826752</v>
+        <v>1.5127524873888678</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.225211485826752</v>
+        <v>1.5127524873888678</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.7407096400986732</v>
+        <v>2.1492312701461231</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12456,21 +12460,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12483,31 +12487,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>8151710.2982214261</v>
+        <v>10834606.317947915</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.515972684371234</v>
+        <v>2.0149105676030588</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.7834972757308636</v>
+        <v>2.3704830207094809</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.7834972757308636</v>
+        <v>2.3704830207094809</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.7834972757308636</v>
+        <v>2.3704830207094809</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.5338898115695816</v>
+        <v>3.3678452198436934</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1387AE0-54C6-4264-AA85-642EEA7117A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09C57757-CBA8-4FF2-B838-686794910D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -960,6 +957,10 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3585,28 +3586,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45625</v>
@@ -3614,7 +3615,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3622,24 +3623,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>4570632324</v>
@@ -3647,15 +3648,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3663,7 +3664,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000</v>
@@ -3671,7 +3672,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3679,15 +3680,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3696,61 +3697,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3799,7 +3800,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>13229453</v>
@@ -3819,7 +3820,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>6586420</v>
@@ -3839,7 +3840,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <f>2582237+1249983</f>
@@ -3861,7 +3862,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151">
         <v>592850</v>
@@ -3881,7 +3882,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>272971</v>
@@ -3901,7 +3902,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>59696</v>
@@ -3921,7 +3922,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151"/>
       <c r="D31" s="151"/>
@@ -3937,7 +3938,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151"/>
       <c r="D32" s="151"/>
@@ -3953,7 +3954,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
@@ -3969,7 +3970,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -3985,7 +3986,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -4001,7 +4002,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4017,7 +4018,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151"/>
@@ -4033,7 +4034,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151"/>
@@ -4049,7 +4050,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151"/>
@@ -4065,7 +4066,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151"/>
@@ -4081,7 +4082,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4097,7 +4098,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4113,7 +4114,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4129,7 +4130,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <f>0.0943+0.0734</f>
@@ -4151,15 +4152,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.0011617387665649E-2</v>
+        <v>3.7235476829990843E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.9367423190010908E-2</v>
+        <v>3.663597899194089E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4200,21 +4201,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4224,7 +4225,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4234,7 +4235,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4245,7 +4246,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4255,7 +4256,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4265,7 +4266,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4276,7 +4277,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4286,7 +4287,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4297,7 +4298,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4305,24 +4306,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4333,7 +4334,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4344,7 +4345,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4355,7 +4356,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4366,7 +4367,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4377,7 +4378,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4388,7 +4389,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4398,31 +4399,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4430,12 +4431,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4446,7 +4447,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4457,7 +4458,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4467,7 +4468,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4478,7 +4479,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248"/>
       <c r="D72" s="249">
@@ -4488,85 +4489,85 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4574,15 +4575,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4590,10 +4591,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4603,19 +4604,19 @@
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4633,7 +4634,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4654,7 +4655,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4675,7 +4676,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4693,7 +4694,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4714,7 +4715,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4732,7 +4733,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4750,7 +4751,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4878,7 +4879,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4890,15 +4891,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.5</v>
+        <v>4.83</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4907,7 +4908,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4918,7 +4919,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4927,11 +4928,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>20567.845458</v>
+        <v>22076.154124920002</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4939,7 +4940,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -4954,7 +4955,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -4965,7 +4966,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4977,10 +4978,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0736569960912068</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4990,40 +4991,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5036,29 +5037,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5068,12 +5069,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5083,29 +5084,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.49786034237394394</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5113,7 +5114,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5124,26 +5125,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>6.0164745032668145E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5152,30 +5153,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>2.063358175126364E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.69274836568964</v>
+        <v>14.713629453303627</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5184,61 +5185,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>0.14100336070836289</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.0011617387665649E-2</v>
+        <v>3.7235476829990843E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.7439815209255798</v>
+        <v>2.6767512197973748</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.2744280449724537</v>
+        <v>5.1451992644437361</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.228213554030094</v>
+        <v>3.1491190821145585</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5864591695412642</v>
+        <v>4.4740863169075968</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -5246,21 +5247,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5270,7 +5271,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5281,14 +5282,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5298,7 +5299,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5308,14 +5309,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5325,7 +5326,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5340,14 +5341,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6327,21 +6328,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6352,14 +6353,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6381,7 +6382,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6392,7 +6393,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6403,7 +6404,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6453,7 +6454,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6504,7 +6505,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6555,7 +6556,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6606,7 +6607,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6657,7 +6658,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6708,7 +6709,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6759,7 +6760,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6810,7 +6811,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6861,7 +6862,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6912,7 +6913,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6963,7 +6964,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7014,7 +7015,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7065,7 +7066,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7116,7 +7117,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7167,7 +7168,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7218,7 +7219,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7269,7 +7270,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7320,7 +7321,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7371,7 +7372,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7422,7 +7423,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7473,7 +7474,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7524,7 +7525,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7575,7 +7576,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7626,7 +7627,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7677,7 +7678,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7728,7 +7729,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7779,7 +7780,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7830,7 +7831,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7881,7 +7882,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7932,7 +7933,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -7983,7 +7984,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8034,7 +8035,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8085,7 +8086,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8136,7 +8137,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8187,7 +8188,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8238,7 +8239,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8256,7 +8257,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8307,7 +8308,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8358,7 +8359,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8409,7 +8410,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8460,7 +8461,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8511,7 +8512,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8562,7 +8563,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8613,7 +8614,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8631,7 +8632,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8682,7 +8683,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8733,7 +8734,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8750,7 +8751,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8800,7 +8801,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8850,7 +8851,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8900,7 +8901,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10259,7 +10260,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10269,12 +10270,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10288,7 +10289,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10298,7 +10299,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10316,10 +10317,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10329,7 +10330,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
@@ -10343,7 +10344,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10354,7 +10355,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10366,7 +10367,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10384,7 +10385,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10403,32 +10404,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10445,7 +10446,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10456,7 +10457,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10473,7 +10474,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10484,7 +10485,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10501,7 +10502,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10512,7 +10513,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10529,7 +10530,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10540,7 +10541,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10557,7 +10558,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10567,7 +10568,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10589,7 +10590,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10611,7 +10612,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10632,7 +10633,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10657,7 +10658,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10684,7 +10685,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10705,7 +10706,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10722,7 +10723,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10734,13 +10735,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10762,7 +10763,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10782,7 +10783,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10791,7 +10792,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10811,7 +10812,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10824,7 +10825,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10844,7 +10845,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10857,7 +10858,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10874,7 +10875,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10890,7 +10891,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10899,7 +10900,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10915,7 +10916,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10925,7 +10926,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10942,7 +10943,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10952,7 +10953,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10969,7 +10970,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10979,7 +10980,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10999,7 +11000,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11009,7 +11010,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11026,7 +11027,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11036,7 +11037,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11062,7 +11063,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11089,7 +11090,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11116,7 +11117,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11137,7 +11138,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11158,7 +11159,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11179,7 +11180,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11200,7 +11201,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11217,7 +11218,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11235,7 +11236,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11254,7 +11255,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11273,7 +11274,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11290,7 +11291,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11303,7 +11304,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11320,7 +11321,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11333,7 +11334,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11350,7 +11351,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11360,7 +11361,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11377,7 +11378,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11393,14 +11394,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11412,12 +11413,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11447,7 +11448,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11458,7 +11459,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11473,7 +11474,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11484,12 +11485,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11513,11 +11514,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11527,7 +11528,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11548,7 +11549,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11569,7 +11570,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11590,7 +11591,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11605,7 +11606,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11636,11 +11637,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11650,7 +11651,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11671,7 +11672,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11686,7 +11687,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11708,7 +11709,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11716,15 +11717,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11733,22 +11734,22 @@
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11769,7 +11770,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11799,7 +11800,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11820,7 +11821,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11850,7 +11851,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11880,7 +11881,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11911,7 +11912,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11938,12 +11939,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11973,7 +11974,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12003,7 +12004,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12033,7 +12034,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12054,7 +12055,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12085,7 +12086,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12106,28 +12107,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3031357423154877E-2</v>
+        <v>6.7964196269430427E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3031357423154877E-2</v>
+        <v>6.7964196269430427E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3031357423154877E-2</v>
+        <v>6.7964196269430427E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12157,21 +12158,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0011617387665649E-2</v>
+        <v>3.7235476829990843E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0011617387665649E-2</v>
+        <v>3.7235476829990843E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0011617387665649E-2</v>
+        <v>3.7235476829990843E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12188,27 +12189,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12227,24 +12228,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.493090534683347</v>
+        <v>6.3340033001045182</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.493090534683347</v>
+        <v>6.3340033001045182</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12252,18 +12253,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>3.0426855884181014</v>
+        <v>2.9988750238914577</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>3.0426855884181014</v>
+        <v>2.9988750238914577</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12282,51 +12283,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>14754977.218824869</v>
+        <v>14393465.46883801</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.228213554030094</v>
+        <v>3.1491190821145585</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.228213554030094</v>
+        <v>3.1491190821145585</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.5864591695412642</v>
+        <v>4.4740863169075968</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12344,7 +12345,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12365,31 +12366,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>14754977.218824869</v>
+        <v>14393465.46883801</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.7439815209255798</v>
+        <v>2.6767512197973748</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.228213554030094</v>
+        <v>3.1491190821145585</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.228213554030094</v>
+        <v>3.1491190821145585</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.228213554030094</v>
+        <v>3.1491190821145585</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.5864591695412642</v>
+        <v>4.4740863169075968</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12399,58 +12400,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6914235.4170709616</v>
+        <v>6814679.7620124714</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2858396142805375</v>
+        <v>1.2673252598540456</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5127524873888678</v>
+        <v>1.4909708939459361</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.5127524873888678</v>
+        <v>1.4909708939459361</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5127524873888678</v>
+        <v>1.4909708939459361</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1492312701461231</v>
+        <v>2.118285241544998</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12460,58 +12461,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10834606.317947915</v>
+        <v>10604072.615425242</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.0149105676030588</v>
+        <v>1.9720382398257104</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.3704830207094809</v>
+        <v>2.3200449880302472</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.3704830207094809</v>
+        <v>2.3200449880302472</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.3704830207094809</v>
+        <v>2.3200449880302472</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.3678452198436934</v>
+        <v>3.2961857792262972</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12520,7 +12521,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09C57757-CBA8-4FF2-B838-686794910D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5812632F-6CA7-4931-B954-BC9C945716FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4156,11 +4156,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7235476829990843E-2</v>
+        <v>3.7080775703351533E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.663597899194089E-2</v>
+        <v>3.6483768581115093E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4801,7 +4801,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4891,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.83</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>22076.154124920002</v>
+        <v>22167.566771399997</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4981,7 +4981,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.713629453303627</v>
+        <v>14.775014767127406</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7235476829990843E-2</v>
+        <v>3.7080775703351533E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5226,20 +5226,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.6767512197973748</v>
+        <v>2.6731313344358862</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.1451992644437361</v>
+        <v>5.1382411910293859</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.1491190821145585</v>
+        <v>3.144860393453984</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.4740863169075968</v>
+        <v>4.468035818286423</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12111,17 +12111,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7964196269430427E-2</v>
+        <v>6.7681827447298212E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7964196269430427E-2</v>
+        <v>6.7681827447298212E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7964196269430427E-2</v>
+        <v>6.7681827447298212E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12162,17 +12162,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7235476829990843E-2</v>
+        <v>3.7080775703351533E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7235476829990843E-2</v>
+        <v>3.7080775703351533E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7235476829990843E-2</v>
+        <v>3.7080775703351533E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12232,14 +12232,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.3340033001045182</v>
+        <v>6.3254375560577465</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.3340033001045182</v>
+        <v>6.3254375560577465</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12257,14 +12257,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.9988750238914577</v>
+        <v>2.9965461598872603</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.9988750238914577</v>
+        <v>2.9965461598872603</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12307,21 +12307,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>14393465.46883801</v>
+        <v>14374000.568788137</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.1491190821145585</v>
+        <v>3.144860393453984</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.1491190821145585</v>
+        <v>3.144860393453984</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.4740863169075968</v>
+        <v>4.468035818286423</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12370,27 +12370,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>14393465.46883801</v>
+        <v>14374000.568788137</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.6767512197973748</v>
+        <v>2.6731313344358862</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.1491190821145585</v>
+        <v>3.144860393453984</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.1491190821145585</v>
+        <v>3.144860393453984</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.1491190821145585</v>
+        <v>3.144860393453984</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.4740863169075968</v>
+        <v>4.468035818286423</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12431,27 +12431,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6814679.7620124714</v>
+        <v>6809387.6233699983</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2673252598540456</v>
+        <v>1.2663410814018692</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4909708939459361</v>
+        <v>1.4898130369433755</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.4909708939459361</v>
+        <v>1.4898130369433755</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4909708939459361</v>
+        <v>1.4898130369433755</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.118285241544998</v>
+        <v>2.1166402252604399</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12492,27 +12492,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10604072.615425242</v>
+        <v>10591694.096079068</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9720382398257104</v>
+        <v>1.9697362079188778</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.3200449880302472</v>
+        <v>2.3173367151986799</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.3200449880302472</v>
+        <v>2.3173367151986799</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.3200449880302472</v>
+        <v>2.3173367151986799</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.2961857792262972</v>
+        <v>3.2923380217734315</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5812632F-6CA7-4931-B954-BC9C945716FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A364676-CD97-437C-9369-5CEE1AC60815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4156,11 +4156,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7080775703351533E-2</v>
+        <v>3.7007929000834869E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6483768581115093E-2</v>
+        <v>3.6412094723540567E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4891,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.8499999999999996</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>22167.566771399997</v>
+        <v>22213.273094640004</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4981,7 +4981,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.775014767127406</v>
+        <v>14.804098023999085</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7080775703351533E-2</v>
+        <v>3.7007929000834869E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5226,20 +5226,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.6731313344358862</v>
+        <v>2.6717164093663173</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.1382411910293859</v>
+        <v>5.1355214495108825</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.144860393453984</v>
+        <v>3.1431957757250792</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.468035818286423</v>
+        <v>4.4656708256616371</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12111,17 +12111,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7681827447298212E-2</v>
+        <v>6.754886372536098E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7681827447298212E-2</v>
+        <v>6.754886372536098E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7681827447298212E-2</v>
+        <v>6.754886372536098E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12162,17 +12162,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7080775703351533E-2</v>
+        <v>3.7007929000834869E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7080775703351533E-2</v>
+        <v>3.7007929000834869E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7080775703351533E-2</v>
+        <v>3.7007929000834869E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12232,14 +12232,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.3254375560577465</v>
+        <v>6.3220894152242746</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.3254375560577465</v>
+        <v>6.3220894152242746</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12257,14 +12257,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.9965461598872603</v>
+        <v>2.9957732617562076</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.9965461598872603</v>
+        <v>2.9957732617562076</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12307,21 +12307,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>14374000.568788137</v>
+        <v>14366392.213189302</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.144860393453984</v>
+        <v>3.1431957757250792</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.144860393453984</v>
+        <v>3.1431957757250792</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.468035818286423</v>
+        <v>4.4656708256616371</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12370,27 +12370,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>14374000.568788137</v>
+        <v>14366392.213189302</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.6731313344358862</v>
+        <v>2.6717164093663173</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.144860393453984</v>
+        <v>3.1431957757250792</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.144860393453984</v>
+        <v>3.1431957757250792</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.144860393453984</v>
+        <v>3.1431957757250792</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.468035818286423</v>
+        <v>4.4656708256616371</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12431,27 +12431,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6809387.6233699983</v>
+        <v>6807631.2803380871</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2663410814018692</v>
+        <v>1.2660144544777814</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4898130369433755</v>
+        <v>1.4894287699738604</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.4898130369433755</v>
+        <v>1.4894287699738604</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4898130369433755</v>
+        <v>1.4894287699738604</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1166402252604399</v>
+        <v>2.116094280967602</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12492,27 +12492,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10591694.096079068</v>
+        <v>10587011.746763695</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9697362079188778</v>
+        <v>1.9688654319220493</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.3173367151986799</v>
+        <v>2.3163122728494701</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.3173367151986799</v>
+        <v>2.3163122728494701</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.3173367151986799</v>
+        <v>2.3163122728494701</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.2923380217734315</v>
+        <v>3.2908825533146198</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A364676-CD97-437C-9369-5CEE1AC60815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{270A989C-B83A-421F-92C2-3430C58C66FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4156,11 +4156,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7007929000834869E-2</v>
+        <v>3.7006778604209173E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6412094723540567E-2</v>
+        <v>3.641096284850634E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4981,7 +4981,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.804098023999085</v>
+        <v>14.804558225752807</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7007929000834869E-2</v>
+        <v>3.7006778604209173E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5226,20 +5226,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.6717164093663173</v>
+        <v>2.6716070845651103</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.1355214495108825</v>
+        <v>5.1353113074989549</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.1431957757250792</v>
+        <v>3.1430671583118945</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.4656708256616371</v>
+        <v>4.4654880934773526</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12111,17 +12111,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.754886372536098E-2</v>
+        <v>6.7546763959527092E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.754886372536098E-2</v>
+        <v>6.7546763959527092E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.754886372536098E-2</v>
+        <v>6.7546763959527092E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12162,17 +12162,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7007929000834869E-2</v>
+        <v>3.7006778604209173E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7007929000834869E-2</v>
+        <v>3.7006778604209173E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7007929000834869E-2</v>
+        <v>3.7006778604209173E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12232,14 +12232,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.3220894152242746</v>
+        <v>6.3218307196658277</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.3220894152242746</v>
+        <v>6.3218307196658277</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12257,14 +12257,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.9957732617562076</v>
+        <v>2.9956635215926077</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.9957732617562076</v>
+        <v>2.9956635215926077</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12307,21 +12307,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>14366392.213189302</v>
+        <v>14365804.35028317</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.1431957757250792</v>
+        <v>3.1430671583118945</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.1431957757250792</v>
+        <v>3.1430671583118945</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.4656708256616371</v>
+        <v>4.4654880934773526</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12370,27 +12370,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>14366392.213189302</v>
+        <v>14365804.35028317</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.6717164093663173</v>
+        <v>2.6716070845651103</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.1431957757250792</v>
+        <v>3.1430671583118945</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.1431957757250792</v>
+        <v>3.1430671583118945</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.1431957757250792</v>
+        <v>3.1430671583118945</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.4656708256616371</v>
+        <v>4.4654880934773526</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12431,27 +12431,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6807631.2803380871</v>
+        <v>6807381.9054671759</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2660144544777814</v>
+        <v>1.2659680782599523</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4894287699738604</v>
+        <v>1.4893742097175908</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.4894287699738604</v>
+        <v>1.4893742097175908</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4894287699738604</v>
+        <v>1.4893742097175908</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.116094280967602</v>
+        <v>2.1160167649100452</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12492,27 +12492,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10587011.746763695</v>
+        <v>10586593.127875172</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9688654319220493</v>
+        <v>1.9687875814125313</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.3163122728494701</v>
+        <v>2.3162206840147426</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.3163122728494701</v>
+        <v>2.3162206840147426</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.3163122728494701</v>
+        <v>2.3162206840147426</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.2908825533146198</v>
+        <v>3.2907524291936987</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{270A989C-B83A-421F-92C2-3430C58C66FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B26E624-C809-44FD-AE8F-FDFDB1D88079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4156,11 +4156,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7006778604209173E-2</v>
+        <v>3.7005628207583491E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.641096284850634E-2</v>
+        <v>3.6409830973472113E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4593,7 +4593,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -4981,7 +4981,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.804558225752807</v>
+        <v>14.805018456119178</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7006778604209173E-2</v>
+        <v>3.7005628207583491E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5226,20 +5226,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.6716070845651103</v>
+        <v>2.6714977616041318</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.1353113074989549</v>
+        <v>5.1351011690242805</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.1430671583118945</v>
+        <v>3.1429385430636847</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.4654880934773526</v>
+        <v>4.4653053643689402</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12111,17 +12111,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7546763959527092E-2</v>
+        <v>6.7544664193693205E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7546763959527092E-2</v>
+        <v>6.7544664193693205E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7546763959527092E-2</v>
+        <v>6.7544664193693205E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12162,17 +12162,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7006778604209173E-2</v>
+        <v>3.7005628207583491E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7006778604209173E-2</v>
+        <v>3.7005628207583491E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7006778604209173E-2</v>
+        <v>3.7005628207583491E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12232,14 +12232,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.3218307196658277</v>
+        <v>6.3215720284619188</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.3218307196658277</v>
+        <v>6.3215720284619188</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12257,14 +12257,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.9956635215926077</v>
+        <v>2.9955537825357998</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.9956635215926077</v>
+        <v>2.9955537825357998</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12307,21 +12307,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>14365804.35028317</v>
+        <v>14365216.497272342</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.1430671583118945</v>
+        <v>3.1429385430636847</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.1430671583118945</v>
+        <v>3.1429385430636847</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.4654880934773526</v>
+        <v>4.4653053643689402</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12370,27 +12370,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>14365804.35028317</v>
+        <v>14365216.497272342</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.6716070845651103</v>
+        <v>2.6714977616041318</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.1430671583118945</v>
+        <v>3.1429385430636847</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.1430671583118945</v>
+        <v>3.1429385430636847</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.1430671583118945</v>
+        <v>3.1429385430636847</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.4654880934773526</v>
+        <v>4.4653053643689402</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12431,27 +12431,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6807381.9054671759</v>
+        <v>6807132.5331113506</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2659680782599523</v>
+        <v>1.2659217025098535</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4893742097175908</v>
+        <v>1.4893196500115924</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.4893742097175908</v>
+        <v>1.4893196500115924</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4893742097175908</v>
+        <v>1.4893196500115924</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1160167649100452</v>
+        <v>2.1159392496342817</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12492,27 +12492,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10586593.127875172</v>
+        <v>10586174.515191847</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9687875814125313</v>
+        <v>1.9687097320569926</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.3162206840147426</v>
+        <v>2.3161290965376384</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.3162206840147426</v>
+        <v>2.3161290965376384</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.3162206840147426</v>
+        <v>2.3161290965376384</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.2907524291936987</v>
+        <v>3.2906223070016107</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B26E624-C809-44FD-AE8F-FDFDB1D88079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{853220DB-F7FA-4D37-B293-E639870C9B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4156,11 +4156,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7005628207583491E-2</v>
+        <v>3.7004477810957802E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6409830973472113E-2</v>
+        <v>3.6408699098437899E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4981,7 +4981,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5030,7 +5030,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5077,7 +5077,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.805018456119178</v>
+        <v>14.805478715100866</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7005628207583491E-2</v>
+        <v>3.7004477810957802E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5226,20 +5226,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.6714977616041318</v>
+        <v>2.7875357639826377</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.1351011690242805</v>
+        <v>5.4337548199859143</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.1429385430636847</v>
+        <v>3.2794538399795741</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.4653053643689402</v>
+        <v>4.7250041912920997</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12111,17 +12111,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7544664193693205E-2</v>
+        <v>6.7542564427859317E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7544664193693205E-2</v>
+        <v>6.7542564427859317E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7544664193693205E-2</v>
+        <v>6.7542564427859317E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12162,17 +12162,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7005628207583491E-2</v>
+        <v>3.7004477810957802E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7005628207583491E-2</v>
+        <v>3.7004477810957802E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7005628207583491E-2</v>
+        <v>3.7004477810957802E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12232,14 +12232,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.3215720284619188</v>
+        <v>6.5961530521173888</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.3215720284619188</v>
+        <v>6.5961530521173888</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12257,14 +12257,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.9955537825357998</v>
+        <v>3.1256807421764612</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.9955537825357998</v>
+        <v>3.1256807421764612</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12307,21 +12307,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>14365216.497272342</v>
+        <v>14989177.726076566</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.1429385430636847</v>
+        <v>3.2794538399795741</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.1429385430636847</v>
+        <v>3.2794538399795741</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.4653053643689402</v>
+        <v>4.7250041912920997</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12370,27 +12370,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>14365216.497272342</v>
+        <v>14989177.726076566</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.6714977616041318</v>
+        <v>2.7875357639826377</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.1429385430636847</v>
+        <v>3.2794538399795741</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.1429385430636847</v>
+        <v>3.2794538399795741</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.1429385430636847</v>
+        <v>3.2794538399795741</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.4653053643689402</v>
+        <v>4.7250041912920997</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12431,27 +12431,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6807132.5331113506</v>
+        <v>7102834.6051519243</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2659217025098535</v>
+        <v>1.3209133849330243</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4893196500115924</v>
+        <v>1.5540157469800286</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.4893196500115924</v>
+        <v>1.5540157469800286</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4893196500115924</v>
+        <v>1.5540157469800286</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1159392496342817</v>
+        <v>2.2390102974769399</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12492,27 +12492,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10586174.515191847</v>
+        <v>11046006.165614244</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9687097320569926</v>
+        <v>2.0542245744578311</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.3161290965376384</v>
+        <v>2.4167347934798014</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.3161290965376384</v>
+        <v>2.4167347934798014</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.3161290965376384</v>
+        <v>2.4167347934798014</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.2906223070016107</v>
+        <v>3.48200724438452</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{853220DB-F7FA-4D37-B293-E639870C9B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{191A46C0-4C1B-4346-934F-24DF7386D767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -980,6 +980,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1519,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1819,9 +1820,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2156,6 +2154,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3593,7 +3597,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3601,7 +3605,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3609,7 +3613,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45625</v>
       </c>
     </row>
@@ -3617,7 +3621,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3625,16 +3629,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>263</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3642,7 +3646,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>4570632324</v>
       </c>
     </row>
@@ -3650,101 +3654,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>259</v>
       </c>
       <c r="D22" s="24"/>
@@ -3802,399 +3806,399 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>13229453</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>13747473</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>6586420</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>6441741</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <f>2582237+1249983</f>
         <v>3832220</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <f>2536450+1122577</f>
         <v>3659027</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151">
+      <c r="C28" s="150">
         <v>592850</v>
       </c>
-      <c r="D28" s="151">
+      <c r="D28" s="150">
         <v>556442</v>
       </c>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>272971</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>191401</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>59696</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>186057</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>0.0943+0.0734</f>
         <v>0.16770000000000002</v>
       </c>
-      <c r="D44" s="251">
+      <c r="D44" s="250">
         <f>0.079+0.086</f>
         <v>0.16499999999999998</v>
       </c>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7004477810957802E-2</v>
-      </c>
-      <c r="D45" s="153">
+        <v>3.6970513001881512E-2</v>
+      </c>
+      <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6408699098437899E-2</v>
-      </c>
-      <c r="E45" s="153" t="str">
+        <v>3.6375281128863735E-2</v>
+      </c>
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4203,10 +4207,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4305,7 +4309,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4317,7 +4321,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4337,7 +4341,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4405,7 +4409,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4417,7 +4421,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4430,7 +4434,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4478,14 +4482,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4569,7 +4573,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4577,19 +4581,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4603,14 +4608,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4622,12 +4627,12 @@
         <f>C25</f>
         <v>13229453</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>13229453</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>13229453</v>
       </c>
@@ -4640,15 +4645,15 @@
         <f>C26</f>
         <v>6586420</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.49786034237394394</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>6586420</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>6586420</v>
       </c>
@@ -4661,15 +4666,15 @@
         <f>C27+C28</f>
         <v>4425070</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.33448624066316274</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>4425070</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>4425070</v>
       </c>
@@ -4682,12 +4687,12 @@
         <f>C29</f>
         <v>272971</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>2.063358175126364E-2</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>272971</v>
       </c>
@@ -4700,15 +4705,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4721,12 +4726,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4739,12 +4744,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>79594.666666666672</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>6.0164745032668145E-3</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>79594.666666666672</v>
       </c>
@@ -4753,16 +4758,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.16770000000000002</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.16770000000000002</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0.16770000000000002</v>
       </c>
@@ -4881,11 +4886,11 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>1066.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -4901,40 +4906,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>威高股份</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>4570632324</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
         <v>22213.273094640004</v>
       </c>
-      <c r="H5" s="274"/>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4942,11 +4947,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4957,22 +4962,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0007</v>
       </c>
@@ -4981,7 +4986,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5001,7 +5006,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5012,7 +5017,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5026,11 +5031,11 @@
       <c r="B12" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5039,7 +5044,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5050,7 +5055,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5061,10 +5066,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5076,10 +5081,10 @@
       <c r="B17" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5101,14 +5106,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.49786034237394394</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5116,7 +5121,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.33448624066316274</v>
       </c>
@@ -5127,7 +5132,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>6.0164745032668145E-3</v>
       </c>
@@ -5139,14 +5144,14 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5155,30 +5160,30 @@
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.063358175126364E-2</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.805478715100866</v>
+        <v>14.819080507908442</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.54786900859355803</v>
       </c>
@@ -5187,16 +5192,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.14100336070836289</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7004477810957802E-2</v>
+        <v>3.6970513001881512E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5215,10 +5220,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5226,22 +5231,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.7875357639826377</v>
+        <v>2.6681616254006415</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.4337548199859143</v>
+        <v>5.1286885127365647</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.2794538399795741</v>
-      </c>
-      <c r="G29" s="273">
+        <v>3.1390136769419312</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.7250041912920997</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>4.4597291415100564</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5253,17 +5258,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -5273,7 +5278,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5281,17 +5286,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5301,24 +5306,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -5328,7 +5333,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -5347,10 +5352,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -6332,16 +6337,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6355,11 +6360,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6392,7 +6397,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6456,47 +6461,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>13229453</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>13747473</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6558,47 +6563,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>6586420</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>6441741</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6609,47 +6614,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>6643033</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>7305732</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6660,47 +6665,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>3832220</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>3659027</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6711,47 +6716,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200">
+      <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>592850</v>
       </c>
-      <c r="D11" s="200">
+      <c r="D11" s="199">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>556442</v>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6762,47 +6767,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>79594.666666666672</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>248076</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6810,50 +6815,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.16163694245962654</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.20674250460430074</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6861,50 +6866,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>2138368.3333333335</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>2842187</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6912,50 +6917,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.24763277949926113</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6966,47 +6971,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7017,47 +7022,47 @@
       <c r="B17" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>272971</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>191401</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7068,47 +7073,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7119,47 +7124,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7170,47 +7175,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7221,47 +7226,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7272,47 +7277,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1865397.3333333335</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>2650786</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7323,47 +7328,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.10575252053127215</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>0.14461490486287917</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7374,7 +7379,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>1399048</v>
       </c>
@@ -7422,50 +7427,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.29628520245190171</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7582,43 +7587,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7633,43 +7638,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7684,43 +7689,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7735,43 +7740,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7786,43 +7791,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7837,43 +7842,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7888,43 +7893,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7990,43 +7995,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8041,43 +8046,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8092,43 +8097,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8190,47 +8195,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8259,47 +8264,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.49786034237394394</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.46857637036275684</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8310,47 +8315,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.33448624066316274</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.30663591774284626</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8361,47 +8366,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8412,47 +8417,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.063358175126364E-2</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>1.3922631453795182E-2</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8463,47 +8468,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>6.0164745032668145E-3</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>1.8045207290096149E-2</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8514,47 +8519,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8565,47 +8570,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>0.14100336070836289</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>0.19281987315050556</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8634,47 +8639,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8685,47 +8690,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8753,47 +8758,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8803,47 +8808,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8853,47 +8858,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.14633397138625692</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>7.2205376065815952E-2</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8903,47 +8908,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10241,8 +10246,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10291,7 +10296,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10388,7 +10393,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10435,7 +10440,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10463,7 +10468,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10491,7 +10496,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10519,7 +10524,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10532,7 +10537,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10547,7 +10552,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10574,7 +10579,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10596,7 +10601,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10618,7 +10623,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10639,7 +10644,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10664,7 +10669,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10691,7 +10696,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10712,7 +10717,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10877,7 +10882,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10906,7 +10911,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10932,7 +10937,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10959,7 +10964,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10986,7 +10991,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11002,7 +11007,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11016,7 +11021,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11043,7 +11048,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11069,7 +11074,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11096,7 +11101,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11123,7 +11128,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11144,7 +11149,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11165,7 +11170,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11186,7 +11191,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11207,7 +11212,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11353,7 +11358,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11462,11 +11467,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11477,11 +11482,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11493,11 +11498,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11593,8 +11598,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11674,8 +11679,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11711,19 +11716,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11733,18 +11738,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11755,17 +11760,17 @@
         <f>Data!C6</f>
         <v>13229453</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>13229453</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>13229453</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11776,23 +11781,23 @@
         <f>Data!C8</f>
         <v>6586420</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.49786034237394394</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>6586420</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.49786034237394394</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>6586420</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.49786034237394394</v>
       </c>
@@ -11802,21 +11807,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>6643033</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>6643033</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>6643033</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11827,23 +11832,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>4425070</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.33448624066316274</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>4425070</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.33448624066316274</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>4425070</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.33448624066316274</v>
       </c>
@@ -11857,54 +11862,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>79594.666666666672</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>6.0164745032668145E-3</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>79594.666666666672</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>6.0164745032668145E-3</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>79594.666666666672</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>6.0164745032668145E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>2138368.3333333335</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.16163694245962654</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>2138368.3333333335</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.16163694245962654</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>2138368.3333333335</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.16163694245962654</v>
       </c>
@@ -11918,27 +11923,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11950,23 +11955,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>272971</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>2.063358175126364E-2</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>272971</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>2.063358175126364E-2</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>272971</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>2.063358175126364E-2</v>
       </c>
@@ -11980,23 +11985,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -12006,27 +12011,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>1865397.3333333335</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>0.14100336070836289</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>1865397.3333333335</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>0.14100336070836289</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>1865397.3333333335</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>0.14100336070836289</v>
       </c>
@@ -12036,49 +12041,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>1399048</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>0.10575252053127215</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>1399048</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>0.10575252053127215</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>1399048</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>0.10575252053127215</v>
       </c>
@@ -12088,69 +12093,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.30609506537065306</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.30609506537065306</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.30609506537065306</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7542564427859317E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>6.7480570030396536E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7542564427859317E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>6.7480570030396536E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7542564427859317E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>6.7480570030396536E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.16770000000000002</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0.54786900859355803</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.16770000000000002</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.54786900859355803</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.16770000000000002</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.54786900859355803</v>
       </c>
@@ -12160,21 +12165,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7004477810957802E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>3.6970513001881512E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7004477810957802E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>3.6970513001881512E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7004477810957802E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>3.6970513001881512E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12196,22 +12201,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12221,9 +12226,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12231,15 +12236,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.5961530521173888</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>6.313677720777954</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.5961530521173888</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>6.313677720777954</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12247,24 +12252,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>3.1256807421764612</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>2.9922045924319645</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>3.1256807421764612</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>2.9922045924319645</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12285,14 +12293,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12307,21 +12315,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>14989177.726076566</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>14347277.377308883</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.2794538399795741</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>3.1390136769419312</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.2794538399795741</v>
+        <v>3.1390136769419312</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7250041912920997</v>
+        <v>4.4597291415100564</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12333,14 +12341,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12351,17 +12359,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12370,27 +12378,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>14989177.726076566</v>
+        <v>14347277.377308883</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.7875357639826377</v>
+        <v>2.6681616254006415</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.2794538399795741</v>
+        <v>3.1390136769419312</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.2794538399795741</v>
+        <v>3.1390136769419312</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.2794538399795741</v>
+        <v>3.1390136769419312</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.7250041912920997</v>
+        <v>4.4597291415100564</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12409,14 +12417,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12431,27 +12439,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7102834.6051519243</v>
+        <v>6799521.7931378921</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3209133849330243</v>
+        <v>1.2645063340183931</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5540157469800286</v>
+        <v>1.4876545106098742</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.5540157469800286</v>
+        <v>1.4876545106098742</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5540157469800286</v>
+        <v>1.4876545106098742</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.2390102974769399</v>
+        <v>2.113573515846924</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12470,14 +12478,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12492,27 +12500,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>11046006.165614244</v>
+        <v>10573399.585223388</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.0542245744578311</v>
+        <v>1.9663339797095172</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.4167347934798014</v>
+        <v>2.3133340937759028</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.4167347934798014</v>
+        <v>2.3133340937759028</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.4167347934798014</v>
+        <v>2.3133340937759028</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.48200724438452</v>
+        <v>3.2866513286784902</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{191A46C0-4C1B-4346-934F-24DF7386D767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CA8706E-8EEF-49A3-9F2F-21C48CC0E2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3577,7 +3577,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4160,11 +4160,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6970513001881512E-2</v>
+        <v>3.7121557594579691E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6375281128863735E-2</v>
+        <v>3.6523893876598976E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4584,7 +4584,9 @@
       <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4896,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.8600000000000003</v>
+        <v>4.83</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4937,7 +4939,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>22213.273094640004</v>
+        <v>22076.154124920002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4986,7 +4988,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5032,10 +5034,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5082,7 +5084,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5169,7 +5171,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.819080507908442</v>
+        <v>14.758782876975914</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5201,7 +5203,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6970513001881512E-2</v>
+        <v>3.7121557594579691E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5231,20 +5233,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.6681616254006415</v>
+        <v>2.6659650742153738</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.1286885127365647</v>
+        <v>4.6720704208186117</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.1390136769419312</v>
+        <v>3.1364294990769106</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.4597291415100564</v>
+        <v>4.062669931146619</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12116,17 +12118,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7480570030396536E-2</v>
+        <v>6.7756264749990053E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7480570030396536E-2</v>
+        <v>6.7756264749990053E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7480570030396536E-2</v>
+        <v>6.7756264749990053E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12167,17 +12169,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6970513001881512E-2</v>
+        <v>3.7121557594579691E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6970513001881512E-2</v>
+        <v>3.7121557594579691E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6970513001881512E-2</v>
+        <v>3.7121557594579691E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12226,7 +12228,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12237,14 +12239,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.313677720777954</v>
+        <v>6.3084800160553671</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.313677720777954</v>
+        <v>6.3084800160553671</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12258,21 +12260,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9922045924319645</v>
+        <v>2.988058755283741</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9922045924319645</v>
+        <v>2.988058755283741</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12315,21 +12317,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>14347277.377308883</v>
+        <v>14335466.050428055</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.1390136769419312</v>
+        <v>3.1364294990769106</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.1390136769419312</v>
+        <v>3.1364294990769106</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.4597291415100564</v>
+        <v>4.062669931146619</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12378,27 +12380,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>14347277.377308883</v>
+        <v>14335466.050428055</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.6681616254006415</v>
+        <v>2.6659650742153738</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.1390136769419312</v>
+        <v>3.1364294990769106</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.1390136769419312</v>
+        <v>3.1364294990769106</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.1390136769419312</v>
+        <v>3.1364294990769106</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.4597291415100564</v>
+        <v>4.062669931146619</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12439,27 +12441,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6799521.7931378921</v>
+        <v>6790100.742815516</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2645063340183931</v>
+        <v>1.2627543023067258</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4876545106098742</v>
+        <v>1.485593296831442</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.4876545106098742</v>
+        <v>1.485593296831442</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4876545106098742</v>
+        <v>1.485593296831442</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.113573515846924</v>
+        <v>1.9243140069707887</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12500,27 +12502,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10573399.585223388</v>
+        <v>10562783.396621786</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9663339797095172</v>
+        <v>1.9643596882610499</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.3133340937759028</v>
+        <v>2.3110113979541764</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.3133340937759028</v>
+        <v>2.3110113979541764</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.3133340937759028</v>
+        <v>2.3110113979541764</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.2866513286784902</v>
+        <v>2.9934919690587041</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CA8706E-8EEF-49A3-9F2F-21C48CC0E2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF3581F7-FA62-4B04-92A1-BDB0D1DF0ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4160,11 +4160,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7121557594579691E-2</v>
+        <v>3.7718466117101557E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6523893876598976E-2</v>
+        <v>3.7111192065126752E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4898,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.83</v>
+        <v>4.76</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>22076.154124920002</v>
+        <v>21756.209862239997</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4988,7 +4988,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.758782876975914</v>
+        <v>14.525219739653041</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7121557594579691E-2</v>
+        <v>3.7718466117101557E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5233,20 +5233,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.6659650742153738</v>
+        <v>2.6832225308354394</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.6720704208186117</v>
+        <v>4.7023138975216581</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.1364294990769106</v>
+        <v>3.1567323892181642</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.062669931146619</v>
+        <v>4.0889686065405728</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12118,17 +12118,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7756264749990053E-2</v>
+        <v>6.8845774310047486E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7756264749990053E-2</v>
+        <v>6.8845774310047486E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7756264749990053E-2</v>
+        <v>6.8845774310047486E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12169,17 +12169,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7121557594579691E-2</v>
+        <v>3.7718466117101557E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7121557594579691E-2</v>
+        <v>3.7718466117101557E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7121557594579691E-2</v>
+        <v>3.7718466117101557E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12239,14 +12239,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.3084800160553671</v>
+        <v>6.3493163800680001</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.3084800160553671</v>
+        <v>6.3493163800680001</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12267,14 +12267,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.988058755283741</v>
+        <v>3.0007250557795855</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.988058755283741</v>
+        <v>3.0007250557795855</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12317,21 +12317,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>14335466.050428055</v>
+        <v>14428263.096378291</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.1364294990769106</v>
+        <v>3.1567323892181642</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.1364294990769106</v>
+        <v>3.1567323892181642</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.062669931146619</v>
+        <v>4.0889686065405728</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12380,27 +12380,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>14335466.050428055</v>
+        <v>14428263.096378291</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.6659650742153738</v>
+        <v>2.6832225308354394</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.1364294990769106</v>
+        <v>3.1567323892181642</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.1364294990769106</v>
+        <v>3.1567323892181642</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.1364294990769106</v>
+        <v>3.1567323892181642</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.062669931146619</v>
+        <v>4.0889686065405728</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12441,27 +12441,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6790100.742815516</v>
+        <v>6818883.7967810631</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2627543023067258</v>
+        <v>1.268107083746232</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.485593296831442</v>
+        <v>1.491890686760273</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.485593296831442</v>
+        <v>1.491890686760273</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.485593296831442</v>
+        <v>1.491890686760273</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9243140069707887</v>
+        <v>1.9324711221605602</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12502,27 +12502,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10562783.396621786</v>
+        <v>10623573.446579678</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9643596882610499</v>
+        <v>1.9756648072908356</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.3110113979541764</v>
+        <v>2.3243115379892187</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.3110113979541764</v>
+        <v>2.3243115379892187</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.3110113979541764</v>
+        <v>2.3243115379892187</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>2.9934919690587041</v>
+        <v>3.0107198643505666</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF3581F7-FA62-4B04-92A1-BDB0D1DF0ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A352E0D-2BD7-4486-A874-750324A81D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -941,6 +941,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>1066.HK</t>
   </si>
   <si>
@@ -954,9 +965,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>HKD</t>
@@ -3577,7 +3585,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3598,7 +3606,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3606,7 +3614,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3630,7 +3638,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3639,7 +3647,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3655,7 +3663,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3687,7 +3695,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4160,11 +4168,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7718466117101557E-2</v>
+        <v>3.5996999750156439E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7111192065126752E-2</v>
+        <v>3.541744161464408E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4281,7 +4289,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4393,7 +4401,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4898,10 +4906,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.76</v>
+        <v>4.99</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4939,7 +4947,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>21756.209862239997</v>
+        <v>22807.455296760003</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4988,7 +4996,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5034,10 +5042,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5084,7 +5092,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5171,7 +5179,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.525219739653041</v>
+        <v>15.219851998670443</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5203,7 +5211,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7718466117101557E-2</v>
+        <v>3.5996999750156439E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5233,20 +5241,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.6832225308354394</v>
+        <v>3.1480872083655029</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.7023138975216581</v>
+        <v>5.8168921942587319</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.1567323892181642</v>
+        <v>3.7036320098417681</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.0889686065405728</v>
+        <v>5.0581671254423757</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12118,17 +12126,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8845774310047486E-2</v>
+        <v>6.5703661250277393E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8845774310047486E-2</v>
+        <v>6.5703661250277393E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8845774310047486E-2</v>
+        <v>6.5703661250277393E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12169,17 +12177,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7718466117101557E-2</v>
+        <v>3.5996999750156439E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7718466117101557E-2</v>
+        <v>3.5996999750156439E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7718466117101557E-2</v>
+        <v>3.5996999750156439E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12228,7 +12236,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12239,14 +12247,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.3493163800680001</v>
+        <v>7.4493268628503087</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.3493163800680001</v>
+        <v>7.4493268628503087</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12267,14 +12275,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0007250557795855</v>
+        <v>3.5432676934991738</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0007250557795855</v>
+        <v>3.5432676934991738</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12317,21 +12325,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>14428263.096378291</v>
+        <v>16927940.180383872</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.1567323892181642</v>
+        <v>3.7036320098417681</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.1567323892181642</v>
+        <v>3.7036320098417681</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.0889686065405728</v>
+        <v>5.0581671254423757</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12380,27 +12388,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>14428263.096378291</v>
+        <v>16927940.180383872</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.6832225308354394</v>
+        <v>3.1480872083655029</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.1567323892181642</v>
+        <v>3.7036320098417681</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.1567323892181642</v>
+        <v>3.7036320098417681</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.1567323892181642</v>
+        <v>3.7036320098417685</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.0889686065405728</v>
+        <v>5.0581671254423757</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12441,27 +12449,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6818883.7967810631</v>
+        <v>8051764.2282232651</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.268107083746232</v>
+        <v>1.4973857245205477</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.491890686760273</v>
+        <v>1.7616302641418209</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.491890686760273</v>
+        <v>1.7616302641418209</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.491890686760273</v>
+        <v>1.7616302641418209</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9324711221605602</v>
+        <v>2.4059140502047933</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12502,27 +12510,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>10623573.446579678</v>
+        <v>12489852.204303568</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.9756648072908356</v>
+        <v>2.3227364664430254</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.3243115379892187</v>
+        <v>2.7326311369917944</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.3243115379892187</v>
+        <v>2.7326311369917944</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.3243115379892187</v>
+        <v>2.7326311369917948</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.0107198643505666</v>
+        <v>3.7320405878235845</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A352E0D-2BD7-4486-A874-750324A81D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF22CED6-646B-4DC9-8A54-0F1FCE04B2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -949,6 +949,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3584,7 +3588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3606,7 +3610,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3614,7 +3618,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3638,7 +3642,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3647,7 +3651,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3663,7 +3667,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4168,11 +4172,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.5996999750156439E-2</v>
+        <v>3.6334183498432766E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.541744161464408E-2</v>
+        <v>3.574919664425405E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4906,10 +4910,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.99</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4947,7 +4951,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>22807.455296760003</v>
+        <v>22578.923680560001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4996,7 +5000,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5017,7 +5021,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5028,7 +5032,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5055,7 +5059,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5179,7 +5183,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.219851998670443</v>
+        <v>15.078610714265528</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5211,7 +5215,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.5996999750156439E-2</v>
+        <v>3.6334183498432766E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5241,20 +5245,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.1480872083655029</v>
+        <v>3.1548297362784772</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.8168921942587319</v>
+        <v>5.8293507303127292</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.7036320098417681</v>
+        <v>3.7115643956217381</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.0581671254423757</v>
+        <v>5.0690006350545476</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5289,8 +5293,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6316,12 +6320,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8747,118 +8751,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8866,107 +8871,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.14633397138625692</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>7.2205376065815952E-2</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.14633397138625692</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>7.2205376065815952E-2</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9534,7 +9586,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10217,6 +10271,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12126,17 +12181,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5703661250277393E-2</v>
+        <v>6.6319107174371367E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5703661250277393E-2</v>
+        <v>6.6319107174371367E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5703661250277393E-2</v>
+        <v>6.6319107174371367E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12177,17 +12232,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.5996999750156439E-2</v>
+        <v>3.6334183498432766E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.5996999750156439E-2</v>
+        <v>3.6334183498432766E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.5996999750156439E-2</v>
+        <v>3.6334183498432766E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12247,14 +12302,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.4493268628503087</v>
+        <v>7.4652817240028728</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.4493268628503087</v>
+        <v>7.4652817240028728</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12275,14 +12330,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5432676934991738</v>
+        <v>3.5463867644185725</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5432676934991738</v>
+        <v>3.5463867644185725</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12325,21 +12380,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16927940.180383872</v>
+        <v>16964196.19923624</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.7036320098417681</v>
+        <v>3.7115643956217377</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.7036320098417681</v>
+        <v>3.7115643956217377</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.0581671254423757</v>
+        <v>5.0690006350545476</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12388,27 +12443,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>16927940.180383872</v>
+        <v>16964196.19923624</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.1480872083655029</v>
+        <v>3.1548297362784772</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>3.7036320098417681</v>
+        <v>3.7115643956217377</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.7036320098417681</v>
+        <v>3.7115643956217381</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.7036320098417685</v>
+        <v>3.7115643956217381</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.0581671254423757</v>
+        <v>5.0690006350545476</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12449,27 +12504,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8051764.2282232651</v>
+        <v>8058852.0425874405</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.4973857245205477</v>
+        <v>1.4987038445928875</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.7616302641418209</v>
+        <v>1.7631809936386913</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.7616302641418209</v>
+        <v>1.7631809936386913</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.7616302641418209</v>
+        <v>1.7631809936386913</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.4059140502047933</v>
+        <v>2.4080319304209379</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12510,27 +12565,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>12489852.204303568</v>
+        <v>12511524.120911838</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.3227364664430254</v>
+        <v>2.3267667904356824</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.7326311369917944</v>
+        <v>2.7373726946302144</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.7326311369917944</v>
+        <v>2.7373726946302148</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.7326311369917948</v>
+        <v>2.7373726946302148</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.7320405878235845</v>
+        <v>3.7385162827377427</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF22CED6-646B-4DC9-8A54-0F1FCE04B2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10ECE1E7-EDB1-4341-93AD-A5A69A499C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4172,11 +4172,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6334183498432766E-2</v>
+        <v>3.6320604995677346E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.574919664425405E-2</v>
+        <v>3.5735836757822069E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5000,7 +5000,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.078610714265528</v>
+        <v>15.08424787138766</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6334183498432766E-2</v>
+        <v>3.6320604995677346E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5245,20 +5245,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.1548297362784772</v>
+        <v>3.1532842591582515</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.8293507303127292</v>
+        <v>5.8264950680638705</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.7115643956217381</v>
+        <v>3.7097461872450017</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.0690006350545476</v>
+        <v>5.0665174504903225</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10311,8 +10311,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12181,17 +12181,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6319107174371367E-2</v>
+        <v>6.6294322960366858E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6319107174371367E-2</v>
+        <v>6.6294322960366858E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6319107174371367E-2</v>
+        <v>6.6294322960366858E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12232,17 +12232,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6334183498432766E-2</v>
+        <v>3.6320604995677346E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6334183498432766E-2</v>
+        <v>3.6320604995677346E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6334183498432766E-2</v>
+        <v>3.6320604995677346E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12302,14 +12302,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.4652817240028728</v>
+        <v>7.4616246575159524</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.4652817240028728</v>
+        <v>7.4616246575159524</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12330,14 +12330,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5463867644185725</v>
+        <v>3.5448292002238762</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5463867644185725</v>
+        <v>3.5448292002238762</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12380,21 +12380,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16964196.19923624</v>
+        <v>16955885.837257762</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.7115643956217377</v>
+        <v>3.7097461872450017</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.7115643956217377</v>
+        <v>3.7097461872450017</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.0690006350545476</v>
+        <v>5.0665174504903225</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12403,7 +12403,7 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12442,28 +12442,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>16964196.19923624</v>
+        <f>C97+C98+$C$99</f>
+        <v>16955885.837257762</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.1548297362784772</v>
+        <v>3.1532842591582515</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>3.7115643956217377</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>3.7097461872450017</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.7115643956217381</v>
+        <v>3.7097461872450017</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.7115643956217381</v>
+        <v>3.7097461872450017</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>5.0690006350545476</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>5.0665174504903225</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12504,27 +12504,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8058852.0425874405</v>
+        <v>8055312.6149317129</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.4987038445928875</v>
+        <v>1.4980456176137515</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.7631809936386913</v>
+        <v>1.7624066089573547</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.7631809936386913</v>
+        <v>1.7624066089573547</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.7631809936386913</v>
+        <v>1.7624066089573547</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.4080319304209379</v>
+        <v>2.406974328821434</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12565,27 +12565,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>12511524.120911838</v>
+        <v>12505599.226094738</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.3267667904356824</v>
+        <v>2.3256649383860015</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.7373726946302144</v>
+        <v>2.7360763981011784</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.7373726946302148</v>
+        <v>2.7360763981011784</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.7373726946302148</v>
+        <v>2.7360763981011784</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.7385162827377427</v>
+        <v>3.7367458896558783</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10ECE1E7-EDB1-4341-93AD-A5A69A499C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{803B23BC-D6B2-48D8-A84C-9EE364913F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4172,11 +4172,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6320604995677346E-2</v>
+        <v>3.6779245216338366E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.5735836757822069E-2</v>
+        <v>3.6187092788883893E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4910,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.9400000000000004</v>
+        <v>4.88</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>22578.923680560001</v>
+        <v>22304.68574112</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5000,7 +5000,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.08424787138766</v>
+        <v>14.896146056585721</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6320604995677346E-2</v>
+        <v>3.6779245216338366E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5245,20 +5245,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.1532842591582515</v>
+        <v>3.1667214390441565</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.8264950680638705</v>
+        <v>5.8513236771899022</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.7097461872450017</v>
+        <v>3.7255546341695958</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.0665174504903225</v>
+        <v>5.088107545382524</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12181,17 +12181,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6294322960366858E-2</v>
+        <v>6.7131457774468509E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6294322960366858E-2</v>
+        <v>6.7131457774468509E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6294322960366858E-2</v>
+        <v>6.7131457774468509E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12232,17 +12232,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6320604995677346E-2</v>
+        <v>3.6779245216338366E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6320604995677346E-2</v>
+        <v>3.6779245216338366E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6320604995677346E-2</v>
+        <v>3.6779245216338366E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12302,14 +12302,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.4616246575159524</v>
+        <v>7.493421090860946</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.4616246575159524</v>
+        <v>7.493421090860946</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12330,14 +12330,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5448292002238762</v>
+        <v>3.5538470532601956</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5448292002238762</v>
+        <v>3.5538470532601956</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12380,21 +12380,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>16955885.837257762</v>
+        <v>17028140.435763549</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.7097461872450017</v>
+        <v>3.7255546341695953</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.7097461872450017</v>
+        <v>3.7255546341695953</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.0665174504903225</v>
+        <v>5.088107545382524</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12443,27 +12443,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>16955885.837257762</v>
+        <v>17028140.435763549</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.1532842591582515</v>
+        <v>3.1667214390441565</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.7097461872450017</v>
+        <v>3.7255546341695953</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.7097461872450017</v>
+        <v>3.7255546341695958</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.7097461872450017</v>
+        <v>3.7255546341695958</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.0665174504903225</v>
+        <v>5.088107545382524</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12504,27 +12504,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8055312.6149317129</v>
+        <v>8075804.8929005573</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.4980456176137515</v>
+        <v>1.5018565643359489</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.7624066089573547</v>
+        <v>1.7668900756893517</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.7624066089573547</v>
+        <v>1.7668900756893517</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.7624066089573547</v>
+        <v>1.7668900756893517</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.406974328821434</v>
+        <v>2.413097540839134</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12565,27 +12565,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>12505599.226094738</v>
+        <v>12551972.664332055</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.3256649383860015</v>
+        <v>2.3342890016900526</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.7360763981011784</v>
+        <v>2.7462223549294738</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.7360763981011784</v>
+        <v>2.7462223549294738</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.7360763981011784</v>
+        <v>2.7462223549294738</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.7367458896558783</v>
+        <v>3.750602543110829</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{803B23BC-D6B2-48D8-A84C-9EE364913F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BFF9AF5-935C-428D-AB94-E93FC28654D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4172,11 +4172,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6779245216338366E-2</v>
+        <v>3.7003288770459365E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6187092788883893E-2</v>
+        <v>3.6407529201704196E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4910,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.88</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>22304.68574112</v>
+        <v>22167.566771399997</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5000,7 +5000,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5046,10 +5046,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5096,7 +5096,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.896146056585721</v>
+        <v>14.805954465078123</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.6779245216338366E-2</v>
+        <v>3.7003288770459365E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5245,20 +5245,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.1667214390441565</v>
+        <v>2.8971484953572206</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.8513236771899022</v>
+        <v>5.2130264079281297</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.7255546341695958</v>
+        <v>3.4084099945379065</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.088107545382524</v>
+        <v>4.5330664416766346</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12181,17 +12181,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7131457774468509E-2</v>
+        <v>6.7540394127149128E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7131457774468509E-2</v>
+        <v>6.7540394127149128E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7131457774468509E-2</v>
+        <v>6.7540394127149128E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12232,17 +12232,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6779245216338366E-2</v>
+        <v>3.7003288770459365E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6779245216338366E-2</v>
+        <v>3.7003288770459365E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.6779245216338366E-2</v>
+        <v>3.7003288770459365E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12291,7 +12291,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12302,14 +12302,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.493421090860946</v>
+        <v>6.8555299404606522</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.493421090860946</v>
+        <v>6.8555299404606522</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12330,14 +12330,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5538470532601956</v>
+        <v>3.2486045594526387</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5538470532601956</v>
+        <v>3.2486045594526387</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12380,21 +12380,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>17028140.435763549</v>
+        <v>15578588.894479617</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.7255546341695953</v>
+        <v>3.4084099945379065</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.7255546341695953</v>
+        <v>3.4084099945379065</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.088107545382524</v>
+        <v>4.5330664416766346</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12443,27 +12443,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>17028140.435763549</v>
+        <v>15578588.894479617</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.1667214390441565</v>
+        <v>2.8971484953572206</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.7255546341695953</v>
+        <v>3.4084099945379065</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.7255546341695958</v>
+        <v>3.4084099945379065</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.7255546341695958</v>
+        <v>3.4084099945379065</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.088107545382524</v>
+        <v>4.5330664416766346</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12504,27 +12504,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8075804.8929005573</v>
+        <v>7382168.1696344726</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.5018565643359489</v>
+        <v>1.3728610177722318</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.7668900756893517</v>
+        <v>1.6151306091438022</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.7668900756893517</v>
+        <v>1.6151306091438022</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.7668900756893517</v>
+        <v>1.6151306091438022</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.413097540839134</v>
+        <v>2.1480673906506125</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12565,27 +12565,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>12551972.664332055</v>
+        <v>11480378.532057045</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.3342890016900526</v>
+        <v>2.1350047565647263</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.7462223549294738</v>
+        <v>2.5117703018408544</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.7462223549294738</v>
+        <v>2.5117703018408544</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.7462223549294738</v>
+        <v>2.5117703018408544</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.750602543110829</v>
+        <v>3.3405669161636236</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BFF9AF5-935C-428D-AB94-E93FC28654D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D93DD62-1CFB-434D-A9B8-9CC4F5153605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4172,11 +4183,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7003288770459365E-2</v>
+        <v>3.7511227412702651E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6407529201704196E-2</v>
+        <v>3.6907289940941779E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4910,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.8499999999999996</v>
+        <v>4.78</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>270</v>
@@ -4951,7 +4962,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>22167.566771399997</v>
+        <v>21847.62250872</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5000,7 +5011,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5183,7 +5194,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.805954465078123</v>
+        <v>14.605467386226605</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5215,7 +5226,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7003288770459365E-2</v>
+        <v>3.7511227412702651E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5245,20 +5256,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.8971484953572206</v>
+        <v>2.9071194992809919</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.2130264079281297</v>
+        <v>5.2309678792926357</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.4084099945379065</v>
+        <v>3.4201405873894024</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5330664416766346</v>
+        <v>4.5486677211240316</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12181,17 +12192,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7540394127149128E-2</v>
+        <v>6.8467511073492249E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7540394127149128E-2</v>
+        <v>6.8467511073492249E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7540394127149128E-2</v>
+        <v>6.8467511073492249E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12232,17 +12243,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7003288770459365E-2</v>
+        <v>3.7511227412702651E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7003288770459365E-2</v>
+        <v>3.7511227412702651E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7003288770459365E-2</v>
+        <v>3.7511227412702651E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12302,14 +12313,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8555299404606522</v>
+        <v>6.8791243527061443</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8555299404606522</v>
+        <v>6.8791243527061443</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12330,14 +12341,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2486045594526387</v>
+        <v>3.2536236381337336</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2486045594526387</v>
+        <v>3.2536236381337336</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12380,21 +12391,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>15578588.894479617</v>
+        <v>15632205.121346349</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.4084099945379065</v>
+        <v>3.4201405873894024</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.4084099945379065</v>
+        <v>3.4201405873894024</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.5330664416766346</v>
+        <v>4.5486677211240316</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12443,27 +12454,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>15578588.894479617</v>
+        <v>15632205.121346349</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.8971484953572206</v>
+        <v>2.9071194992809919</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.4084099945379065</v>
+        <v>3.4201405873894024</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.4084099945379065</v>
+        <v>3.4201405873894024</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.4084099945379065</v>
+        <v>3.4201405873894024</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.5330664416766346</v>
+        <v>4.5486677211240316</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12504,27 +12515,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7382168.1696344726</v>
+        <v>7393573.5845449017</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3728610177722318</v>
+        <v>1.3749820815521729</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.6151306091438022</v>
+        <v>1.6176259782966742</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.6151306091438022</v>
+        <v>1.6176259782966742</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.6151306091438022</v>
+        <v>1.6176259782966742</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1480673906506125</v>
+        <v>2.1513861446105547</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12565,27 +12576,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>11480378.532057045</v>
+        <v>11512889.352945628</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.1350047565647263</v>
+        <v>2.1410507904165823</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.5117703018408544</v>
+        <v>2.5188832828430385</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.5117703018408544</v>
+        <v>2.5188832828430385</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.5117703018408544</v>
+        <v>2.5188832828430385</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.3405669161636236</v>
+        <v>3.3500269328672934</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D93DD62-1CFB-434D-A9B8-9CC4F5153605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BB232BB-6388-4F9B-B7F9-2D0FE3831F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -964,6 +943,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1543,7 +1558,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2183,6 +2198,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3599,7 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3613,28 +3638,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45625</v>
@@ -3650,24 +3675,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>4570632324</v>
@@ -3675,10 +3700,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3699,7 +3724,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3707,15 +3732,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3724,61 +3749,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3847,7 +3872,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>6586420</v>
@@ -3867,7 +3892,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <f>2582237+1249983</f>
@@ -3889,7 +3914,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150">
         <v>592850</v>
@@ -3909,7 +3934,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>272971</v>
@@ -3929,7 +3954,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>59696</v>
@@ -3949,7 +3974,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3965,7 +3990,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3981,7 +4006,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4013,7 +4038,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4029,7 +4054,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4061,7 +4086,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4109,7 +4134,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4125,7 +4150,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4141,7 +4166,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4157,7 +4182,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>0.0943+0.0734</f>
@@ -4179,15 +4204,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7511227412702651E-2</v>
+        <v>3.7592211506901556E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6907289940941779E-2</v>
+        <v>3.6986970176736765E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4228,21 +4253,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4252,7 +4277,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4262,7 +4287,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4273,7 +4298,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4283,7 +4308,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4293,7 +4318,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4304,7 +4329,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4314,7 +4339,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4325,7 +4350,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4333,24 +4358,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4361,7 +4386,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4372,7 +4397,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4383,7 +4408,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4394,7 +4419,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4405,7 +4430,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4416,7 +4441,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4426,31 +4451,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4458,12 +4483,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4474,7 +4499,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4485,7 +4510,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4495,7 +4520,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4506,7 +4531,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4516,25 +4541,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4546,55 +4571,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4602,10 +4627,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4613,18 +4638,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4633,20 +4658,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4664,7 +4689,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4685,7 +4710,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4706,7 +4731,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4724,7 +4749,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4745,7 +4770,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4763,7 +4788,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4781,7 +4806,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4909,62 +4934,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>1066.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.78</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>威高股份</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>4570632324</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>21847.62250872</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>21801.91618548</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4987,16 +5012,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5011,7 +5036,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5021,40 +5046,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5067,29 +5092,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5099,12 +5124,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5114,29 +5139,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.49786034237394394</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5144,7 +5169,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5155,26 +5180,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>6.0164745032668145E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5183,30 +5208,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.063358175126364E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.605467386226605</v>
+        <v>14.574003141394718</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5215,18 +5240,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.14100336070836289</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7511227412702651E-2</v>
+        <v>3.7592211506901556E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5236,62 +5261,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9071194992809919</v>
+        <v>2.9093123958566829</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.2309678792926357</v>
+        <v>5.234913699735479</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.4201405873894024</v>
-      </c>
-      <c r="G29" s="274">
+        <v>3.4227204657137449</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5486677211240316</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>4.5520988693351994</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5301,25 +5326,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5329,7 +5354,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5339,14 +5364,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5356,7 +5381,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5371,14 +5396,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6331,12 +6356,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6363,16 +6388,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6390,7 +6415,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6423,7 +6448,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6434,7 +6459,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6586,7 +6611,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6637,7 +6662,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6688,7 +6713,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6739,7 +6764,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6790,7 +6815,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6841,7 +6866,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6892,7 +6917,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6943,7 +6968,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6994,7 +7019,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7045,7 +7070,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7096,7 +7121,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7147,7 +7172,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7198,7 +7223,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7249,7 +7274,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7300,7 +7325,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7351,7 +7376,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7402,7 +7427,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7453,7 +7478,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7504,7 +7529,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7657,7 +7682,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7708,7 +7733,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7810,7 +7835,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8014,7 +8039,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8065,7 +8090,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8116,7 +8141,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8167,7 +8192,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8218,7 +8243,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8269,7 +8294,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8287,7 +8312,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8338,7 +8363,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8389,7 +8414,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8440,7 +8465,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8491,7 +8516,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8542,7 +8567,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8593,7 +8618,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8644,7 +8669,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8661,50 +8686,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8713,10 +8738,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8764,167 +8789,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8932,112 +8958,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.14633397138625692</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>7.2205376065815952E-2</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.14633397138625692</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>7.2205376065815952E-2</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9600,7 +9816,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10283,6 +10501,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10322,8 +10541,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10341,7 +10560,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10356,7 +10575,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10370,7 +10589,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10380,7 +10599,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10398,10 +10617,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10410,12 +10629,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10425,7 +10645,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10435,8 +10655,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10448,7 +10669,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10466,7 +10687,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10485,32 +10706,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10527,7 +10748,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10538,7 +10759,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10555,7 +10776,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10566,7 +10787,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10583,7 +10804,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10594,7 +10815,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10611,7 +10832,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10622,7 +10843,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10639,7 +10860,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10649,7 +10870,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10671,7 +10892,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10693,7 +10914,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10714,7 +10935,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10739,7 +10960,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10766,7 +10987,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10787,7 +11008,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10804,7 +11025,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10816,13 +11037,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10844,7 +11065,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10864,7 +11085,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10873,7 +11094,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10893,7 +11114,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10906,7 +11127,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10926,7 +11147,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10972,7 +11193,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10981,7 +11202,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10997,7 +11218,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11007,7 +11228,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11024,7 +11245,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11034,7 +11255,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11051,7 +11272,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11061,7 +11282,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11081,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11091,7 +11312,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11108,7 +11329,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11118,7 +11339,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11144,7 +11365,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11171,7 +11392,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11198,7 +11419,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11219,7 +11440,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11240,7 +11461,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11261,7 +11482,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11282,7 +11503,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11299,7 +11520,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11317,7 +11538,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11336,7 +11557,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11355,7 +11576,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11372,7 +11593,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11385,7 +11606,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11402,7 +11623,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11415,7 +11636,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11432,7 +11653,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11459,7 +11680,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11475,14 +11696,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11499,7 +11720,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11529,7 +11750,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11540,14 +11761,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11555,30 +11776,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11595,11 +11816,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11609,7 +11830,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11630,7 +11851,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11651,7 +11872,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11672,7 +11893,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11687,7 +11908,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11718,11 +11939,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11732,7 +11953,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11753,7 +11974,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11768,7 +11989,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11790,21 +12011,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11814,23 +12035,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11851,7 +12072,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11881,7 +12102,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11902,7 +12123,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11932,7 +12153,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11962,7 +12183,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11993,7 +12214,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12020,12 +12241,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12055,7 +12276,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12085,7 +12306,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12115,7 +12336,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12136,7 +12357,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12167,7 +12388,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12188,28 +12409,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8467511073492249E-2</v>
+        <v>6.8615327600670531E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8467511073492249E-2</v>
+        <v>6.8615327600670531E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8467511073492249E-2</v>
+        <v>6.8615327600670531E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12239,21 +12460,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7511227412702651E-2</v>
+        <v>3.7592211506901556E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7511227412702651E-2</v>
+        <v>3.7592211506901556E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7511227412702651E-2</v>
+        <v>3.7592211506901556E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12270,29 +12491,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12309,24 +12530,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8791243527061443</v>
+        <v>6.884313409516686</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8791243527061443</v>
+        <v>6.884313409516686</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12337,18 +12558,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2536236381337336</v>
+        <v>3.2550966463211255</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2536236381337336</v>
+        <v>3.2550966463211255</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12367,51 +12588,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>15632205.121346349</v>
+        <v>15643996.796607576</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.4201405873894024</v>
+        <v>3.4227204657137449</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.4201405873894024</v>
+        <v>3.4227204657137449</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.5486677211240316</v>
+        <v>4.5520988693351994</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12429,7 +12650,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12450,31 +12671,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>15632205.121346349</v>
+        <v>15643996.796607576</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9071194992809919</v>
+        <v>2.9093123958566829</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.4201405873894024</v>
+        <v>3.4227204657137449</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.4201405873894024</v>
+        <v>3.4227204657137449</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.4201405873894024</v>
+        <v>3.4227204657137449</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.5486677211240316</v>
+        <v>4.5520988693351994</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12484,58 +12705,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7393573.5845449017</v>
+        <v>7396920.8661101311</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3749820815521729</v>
+        <v>1.375604575143597</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.6176259782966742</v>
+        <v>1.6183583236983494</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.6176259782966742</v>
+        <v>1.6183583236983494</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.6176259782966742</v>
+        <v>1.6183583236983494</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1513861446105547</v>
+        <v>2.1523601384579409</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12545,58 +12766,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>11512889.352945628</v>
+        <v>11520458.831358854</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.1410507904165823</v>
+        <v>2.1424584855001401</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.5188832828430385</v>
+        <v>2.5205393947060473</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.5188832828430385</v>
+        <v>2.5205393947060473</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.5188832828430385</v>
+        <v>2.5205393947060473</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.3500269328672934</v>
+        <v>3.3522295038965702</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12605,7 +12826,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12614,6 +12835,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BB232BB-6388-4F9B-B7F9-2D0FE3831F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2FBA972-18FA-438E-903D-014D87809C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -962,10 +928,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -979,6 +941,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1294,7 +1292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1552,13 +1550,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2208,6 +2322,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2447,981 +2585,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.49786034237394394</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.33448624066316274</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.0164745032668145E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.063358175126364E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.14100336070836289</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3624,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3638,28 +2801,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45625</v>
@@ -3675,24 +2838,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>4570632324</v>
@@ -3700,10 +2863,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3724,7 +2887,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3732,10 +2895,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3749,55 +2912,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3934,7 +3097,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>272971</v>
@@ -4054,7 +3217,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4150,7 +3313,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4182,7 +3345,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.0943+0.0734</f>
@@ -4204,15 +3367,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7592211506901556E-2</v>
+        <v>3.7588695200234348E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6986970176736765E-2</v>
+        <v>3.6983510483235935E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4253,13 +3416,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4318,7 +3481,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4329,7 +3492,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4430,7 +3593,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4441,7 +3604,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4601,7 +3764,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4619,7 +3782,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4627,10 +3790,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4640,16 +3803,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4658,10 +3821,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4710,7 +3873,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4731,7 +3894,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4749,7 +3912,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4788,7 +3951,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4806,7 +3969,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4892,8 +4055,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4934,13 +4097,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>1066.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -4949,47 +4112,47 @@
         <v>4.7699999999999996</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>威高股份</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>4570632324</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
         <v>21801.91618548</v>
       </c>
-      <c r="H5" s="279"/>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5012,16 +4175,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5036,7 +4199,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5046,40 +4209,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5092,29 +4255,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5124,12 +4287,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5137,9 +4300,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5147,59 +4310,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.49786034237394394</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.33448624066316274</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>6.0164745032668145E-3</v>
+      <c r="B22" s="279" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.16163694245962654</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5208,30 +4371,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.063358175126364E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.574003141394718</v>
+        <v>14.575366494502376</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5240,18 +4403,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.14100336070836289</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7592211506901556E-2</v>
+        <v>3.7588695200234348E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5261,62 +4424,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9093123958566829</v>
+        <v>2.9089529060093726</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.234913699735479</v>
+        <v>5.234266846434581</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.4227204657137449</v>
-      </c>
-      <c r="G29" s="278">
+        <v>3.4222975364816151</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5520988693351994</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>4.5515363882039841</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5326,7 +4489,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5337,14 +4500,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5354,7 +4517,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5364,14 +4527,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5381,7 +4544,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5396,14 +4559,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6347,7 +5510,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6361,7 +5523,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6388,16 +5550,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6415,7 +5577,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6448,7 +5610,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6815,7 +5977,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6866,7 +6028,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6917,7 +6079,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6968,7 +6130,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7070,7 +6232,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7223,7 +6385,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7733,7 +6895,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8243,7 +7405,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8294,7 +7456,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8363,7 +7525,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8567,7 +7729,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8669,7 +7831,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8687,14 +7849,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8738,7 +7900,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8789,7 +7951,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8840,7 +8002,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8891,7 +8053,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8908,7 +8070,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9108,7 +8270,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9158,7 +8320,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9208,7 +8370,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10712,7 +9874,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10870,7 +10032,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11282,7 +10444,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11750,7 +10912,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11764,11 +10926,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11779,11 +10941,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11795,11 +10957,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11816,7 +10978,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11893,7 +11055,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11939,7 +11101,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11974,7 +11136,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12013,19 +11175,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12035,18 +11197,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12123,7 +11285,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12153,7 +11315,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12183,7 +11345,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12246,7 +11408,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12276,7 +11438,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12357,7 +11519,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12388,7 +11550,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12409,28 +11571,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8615327600670531E-2</v>
+        <v>6.8608909448499011E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8615327600670531E-2</v>
+        <v>6.8608909448499011E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8615327600670531E-2</v>
+        <v>6.8608909448499011E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12460,21 +11622,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7592211506901556E-2</v>
+        <v>3.7588695200234348E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7592211506901556E-2</v>
+        <v>3.7588695200234348E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7592211506901556E-2</v>
+        <v>3.7588695200234348E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12496,24 +11658,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12530,24 +11692,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.884313409516686</v>
+        <v>6.8834627477658374</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.884313409516686</v>
+        <v>6.8834627477658374</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12558,18 +11720,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2550966463211255</v>
+        <v>3.254737019922362</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2550966463211255</v>
+        <v>3.254737019922362</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12588,14 +11750,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12612,21 +11774,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>15643996.796607576</v>
+        <v>15642063.74258844</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.4227204657137449</v>
+        <v>3.4222975364816151</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.4227204657137449</v>
+        <v>3.4222975364816151</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.5520988693351994</v>
+        <v>4.5515363882039841</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12675,27 +11837,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>15643996.796607576</v>
+        <v>15642063.74258844</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9093123958566829</v>
+        <v>2.9089529060093726</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.4227204657137449</v>
+        <v>3.4222975364816151</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.4227204657137449</v>
+        <v>3.4222975364816151</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.4227204657137449</v>
+        <v>3.4222975364816151</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.5520988693351994</v>
+        <v>4.5515363882039841</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12705,21 +11867,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12732,31 +11894,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7396920.8661101311</v>
+        <v>7396103.6467455309</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.375604575143597</v>
+        <v>1.3754525969465623</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.6183583236983494</v>
+        <v>1.6181795258194851</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.6183583236983494</v>
+        <v>1.6181795258194851</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.6183583236983494</v>
+        <v>1.6181795258194851</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1523601384579409</v>
+        <v>2.1521223435137231</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12766,21 +11928,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12793,31 +11955,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>11520458.831358854</v>
+        <v>11519083.694666987</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.1424584855001401</v>
+        <v>2.1422027514779676</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.5205393947060473</v>
+        <v>2.5202385311505502</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.5205393947060473</v>
+        <v>2.5202385311505502</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.5205393947060473</v>
+        <v>2.5202385311505502</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.3522295038965702</v>
+        <v>3.3518293658588538</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12826,7 +11988,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2FBA972-18FA-438E-903D-014D87809C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AED2ADC6-2824-47E6-8E7F-E488C16F3F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -912,10 +908,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -977,6 +969,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2396,7 +2400,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2493,12 +2497,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2787,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2801,28 +2821,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45625</v>
@@ -2838,24 +2858,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>4570632324</v>
@@ -2863,10 +2883,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2887,7 +2907,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2895,10 +2915,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2912,61 +2932,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3097,7 +3117,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>272971</v>
@@ -3183,9 +3203,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3201,7 +3221,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3217,7 +3237,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3232,10 +3252,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3247,9 +3268,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3296,10 +3317,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3313,9 +3335,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3329,7 +3351,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3345,7 +3367,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>0.0943+0.0734</f>
@@ -3367,15 +3389,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7588695200234348E-2</v>
+        <v>3.782423929323124E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.6983510483235935E-2</v>
+        <v>3.7215262274198892E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3416,13 +3438,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3440,7 +3462,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3450,7 +3472,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3481,7 +3503,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3492,7 +3514,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3526,7 +3548,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3593,7 +3615,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3604,7 +3626,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3651,7 +3673,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3764,7 +3786,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3782,7 +3804,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3790,10 +3812,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3801,7 +3823,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3809,10 +3831,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3834,7 +3856,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3873,7 +3895,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3894,7 +3916,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3912,7 +3934,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3951,7 +3973,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3969,7 +3991,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -3992,28 +4014,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4055,8 +4082,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4097,7 +4124,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4109,15 +4136,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.7699999999999996</v>
+        <v>4.74</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4137,7 +4164,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4150,7 +4177,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>21801.91618548</v>
+        <v>21664.797215760002</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4184,7 +4211,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4199,7 +4226,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4209,40 +4236,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4255,29 +4282,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4287,12 +4314,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4302,7 +4329,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4310,21 +4337,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4332,10 +4359,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4343,58 +4370,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.16163694245962654</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.063358175126364E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.575366494502376</v>
+        <v>14.484600849371233</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4403,18 +4430,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7588695200234348E-2</v>
+        <v>3.782423929323124E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4424,40 +4451,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9089529060093726</v>
+        <v>2.9146275535034651</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>5.234266846434581</v>
+        <v>5.2444776061832776</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.4222975364816151</v>
+        <v>3.4289735923570182</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5515363882039841</v>
+        <v>4.5604153097245899</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4465,21 +4492,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4489,25 +4516,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4517,7 +4544,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4527,14 +4554,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4544,7 +4571,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4559,14 +4586,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5466,27 +5493,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5518,12 +5545,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5550,16 +5577,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5577,7 +5604,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5610,7 +5637,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5621,7 +5648,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5977,7 +6004,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6028,7 +6055,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6079,7 +6106,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6130,7 +6157,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6232,7 +6259,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6385,7 +6412,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6640,7 +6667,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6691,7 +6718,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6745,15 +6772,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6793,50 +6820,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6844,50 +6871,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6895,101 +6922,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -6997,101 +7024,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7099,50 +7126,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7150,50 +7177,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7201,50 +7228,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7252,272 +7279,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.49786034237394394</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.46857637036275684</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.33448624066316274</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.30663591774284626</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.49786034237394394</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.46857637036275684</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7525,50 +7552,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.33448624066316274</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>2.063358175126364E-2</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.30663591774284626</v>
+        <f t="shared" si="37"/>
+        <v>1.3922631453795182E-2</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7576,50 +7603,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>6.0164745032668145E-3</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.8045207290096149E-2</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7627,50 +7654,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>2.063358175126364E-2</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.3922631453795182E-2</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7678,221 +7705,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>6.0164745032668145E-3</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.14100336070836289</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>1.8045207290096149E-2</v>
+        <f t="shared" si="40"/>
+        <v>0.19281987315050556</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.14100336070836289</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.19281987315050556</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7900,522 +7927,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.14633397138625692</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>7.2205376065815952E-2</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.14633397138625692</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>7.2205376065815952E-2</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8975,12 +8906,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9662,27 +9589,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9874,7 +9804,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9921,7 +9851,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9949,7 +9879,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10032,7 +9962,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10054,7 +9984,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10122,7 +10052,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10444,7 +10374,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10581,7 +10511,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10912,7 +10842,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10978,7 +10908,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11013,7 +10943,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11034,7 +10964,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11055,7 +10985,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11070,7 +11000,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11101,7 +11031,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11115,7 +11045,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11136,7 +11066,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11151,7 +11081,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11173,7 +11103,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11181,11 +11111,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11213,7 +11143,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11285,7 +11215,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11315,7 +11245,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11345,7 +11275,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11403,12 +11333,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11438,7 +11368,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11468,7 +11398,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11519,7 +11449,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11550,7 +11480,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11571,28 +11501,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8608909448499011E-2</v>
+        <v>6.9038837203678233E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8608909448499011E-2</v>
+        <v>6.9038837203678233E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8608909448499011E-2</v>
+        <v>6.9038837203678233E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11622,21 +11552,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7588695200234348E-2</v>
+        <v>3.782423929323124E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7588695200234348E-2</v>
+        <v>3.782423929323124E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7588695200234348E-2</v>
+        <v>3.782423929323124E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11653,27 +11583,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11692,24 +11622,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8834627477658374</v>
+        <v>6.8968906807349812</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8834627477658374</v>
+        <v>6.8968906807349812</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11720,18 +11650,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.254737019922362</v>
+        <v>3.2582297929302761</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.254737019922362</v>
+        <v>3.2582297929302761</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11750,14 +11680,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11770,31 +11700,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>15642063.74258844</v>
+        <v>15672577.539369388</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.4222975364816151</v>
+        <v>3.4289735923570182</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.4222975364816151</v>
+        <v>3.4289735923570182</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.5515363882039841</v>
+        <v>4.5604153097245899</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11812,7 +11742,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11837,27 +11767,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>15642063.74258844</v>
+        <v>15672577.539369388</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9089529060093726</v>
+        <v>2.9146275535034651</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.4222975364816151</v>
+        <v>3.4289735923570182</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.4222975364816151</v>
+        <v>3.4289735923570182</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.4222975364816151</v>
+        <v>3.4289735923570182</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.5515363882039841</v>
+        <v>4.5604153097245899</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11867,21 +11797,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11894,31 +11824,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7396103.6467455309</v>
+        <v>7404040.6662414121</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3754525969465623</v>
+        <v>1.3769286436055932</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.6181795258194851</v>
+        <v>1.6199160513006978</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.6181795258194851</v>
+        <v>1.6199160513006978</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.6181795258194851</v>
+        <v>1.6199160513006978</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1521223435137231</v>
+        <v>2.1544318618511933</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11928,21 +11858,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11955,31 +11885,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>11519083.694666987</v>
+        <v>11538309.1028054</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.1422027514779676</v>
+        <v>2.1457780985545289</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.5202385311505502</v>
+        <v>2.5244448218288582</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.5202385311505502</v>
+        <v>2.5244448218288582</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.5202385311505502</v>
+        <v>2.5244448218288582</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.3518293658588538</v>
+        <v>3.3574235857878918</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11988,7 +11918,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AED2ADC6-2824-47E6-8E7F-E488C16F3F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F056CB86-84D3-48C5-B9FF-0ACD590AEE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -948,10 +944,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -981,6 +973,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1911,7 +1919,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2147,12 +2154,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2351,6 +2354,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2590,8 +2598,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2807,7 +2815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2825,162 +2833,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>267</v>
+      <c r="C4" s="187" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>268</v>
+      <c r="C5" s="190" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45625</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>270</v>
+      <c r="C9" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>4570632324</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>271</v>
+      <c r="C11" s="191" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>244</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>229</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>229</v>
+      <c r="C19" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>229</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>229</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>242</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>241</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3037,413 +3045,417 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>13229453</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>13747473</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>6586420</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>6441741</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <f>2582237+1249983</f>
         <v>3832220</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <f>2536450+1122577</f>
         <v>3659027</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150">
+      <c r="C28" s="149">
         <v>592850</v>
       </c>
-      <c r="D28" s="150">
+      <c r="D28" s="149">
         <v>556442</v>
       </c>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>272971</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>191401</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>59696</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>186057</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>264</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.0943+0.0734</f>
         <v>0.16770000000000002</v>
       </c>
-      <c r="D44" s="250">
+      <c r="D44" s="247">
         <f>0.079+0.086</f>
         <v>0.16499999999999998</v>
       </c>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.782423929323124E-2</v>
-      </c>
-      <c r="D45" s="152">
+        <v>3.8525318197024767E-2</v>
+      </c>
+      <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7215262274198892E-2</v>
-      </c>
-      <c r="E45" s="152" t="str">
+        <v>3.7905053682224715E-2</v>
+      </c>
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3514,7 +3526,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3542,7 +3554,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3554,7 +3566,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3573,8 +3585,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3626,7 +3638,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3642,7 +3654,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3654,7 +3666,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3667,7 +3679,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3715,14 +3727,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3746,7 +3758,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3776,19 +3788,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>268</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3804,20 +3816,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3847,10 +3859,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3862,12 +3874,12 @@
         <f>C25</f>
         <v>13229453</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>13229453</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>13229453</v>
       </c>
@@ -3880,75 +3892,75 @@
         <f>C26</f>
         <v>6586420</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.49786034237394394</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>6586420</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>6586420</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>4425070</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.33448624066316274</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>4425070</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>4425070</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>272971</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>2.063358175126364E-2</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>272971</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3961,12 +3973,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -3979,12 +3991,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>79594.666666666672</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>6.0164745032668145E-3</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>79594.666666666672</v>
       </c>
@@ -3993,16 +4005,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.16770000000000002</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.16770000000000002</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.16770000000000002</v>
       </c>
@@ -4083,7 +4095,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4135,11 +4147,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>4.74</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>272</v>
+      <c r="G3" s="131">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4177,7 +4189,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>21664.797215760002</v>
+        <v>21253.440306600001</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4187,11 +4199,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4213,11 +4225,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0007</v>
       </c>
@@ -4225,8 +4237,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4235,10 +4247,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4246,7 +4258,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4254,13 +4266,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4269,12 +4281,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4284,7 +4296,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4295,7 +4307,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4303,13 +4315,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4319,49 +4331,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4369,79 +4381,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.16163694245962654</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>2.063358175126364E-2</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.484600849371233</v>
+        <v>14.221011901619255</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.54786900859355803</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.782423929323124E-2</v>
+        <v>3.8525318197024767E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4458,10 +4470,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4469,22 +4481,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9146275535034651</v>
-      </c>
-      <c r="D29" s="129">
+        <v>2.9297557994679773</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>5.2444776061832776</v>
+        <v>5.2716988362462223</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.4289735923570182</v>
+        <v>3.4467715287858556</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5604153097245899</v>
+        <v>4.5840859445619326</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4492,23 +4504,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4516,9 +4528,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4526,17 +4538,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4544,26 +4556,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4571,9 +4583,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4586,16 +4598,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5547,10 +5559,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5576,16 +5588,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5599,11 +5611,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5628,7 +5640,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5636,7 +5648,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5700,47 +5712,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>13229453</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>13747473</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5802,47 +5814,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>6586420</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>6441741</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5853,47 +5865,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>6643033</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>7305732</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5904,47 +5916,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>3832220</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>3659027</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5955,47 +5967,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="198">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>592850</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>556442</v>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6004,49 +6016,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>79594.666666666672</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>248076</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6054,50 +6066,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.16163694245962654</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.20674250460430074</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6105,50 +6117,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>2138368.3333333335</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>2842187</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6156,50 +6168,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.24763277949926113</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6210,47 +6222,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6259,49 +6271,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>272971</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>191401</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6312,47 +6324,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6363,47 +6375,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6412,49 +6424,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6465,47 +6477,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6516,47 +6528,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1865397.3333333335</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>2650786</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6567,47 +6579,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.10575252053127215</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>0.14461490486287917</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6618,7 +6630,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>1399048</v>
       </c>
@@ -6666,50 +6678,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.29628520245190171</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6826,43 +6838,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6877,43 +6889,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6922,49 +6934,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6979,43 +6991,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7030,43 +7042,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7132,43 +7144,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7183,43 +7195,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7234,43 +7246,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7332,47 +7344,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7381,7 +7393,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7401,47 +7413,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.49786034237394394</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.46857637036275684</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7450,49 +7462,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.33448624066316274</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.30663591774284626</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7503,47 +7515,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7554,47 +7566,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.063358175126364E-2</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>1.3922631453795182E-2</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7605,47 +7617,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>6.0164745032668145E-3</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>1.8045207290096149E-2</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7654,49 +7666,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7707,47 +7719,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.14100336070836289</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>0.19281987315050556</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7756,9 +7768,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>248</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>266</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7773,50 +7787,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7825,49 +7839,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="153">
+        <v>255</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7876,49 +7890,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="153">
+        <v>256</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7927,49 +7941,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>246</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7978,7 +7992,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7995,49 +8009,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>250</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8047,47 +8061,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8097,47 +8111,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.14633397138625692</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>7.2205376065815952E-2</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8147,47 +8161,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8195,149 +8209,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>251</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9633,8 +9647,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9670,8 +9684,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9683,8 +9697,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9694,8 +9708,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9782,11 +9796,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9829,7 +9843,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9857,7 +9871,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9885,7 +9899,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9913,7 +9927,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9926,7 +9940,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9941,7 +9955,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9968,7 +9982,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -9990,7 +10004,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10012,7 +10026,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10033,7 +10047,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10041,7 +10055,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10058,7 +10072,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10066,7 +10080,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10085,7 +10099,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10106,7 +10120,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10271,7 +10285,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10300,7 +10314,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10326,7 +10340,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10353,7 +10367,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10380,7 +10394,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10396,7 +10410,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10410,7 +10424,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10437,7 +10451,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10445,7 +10459,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10463,7 +10477,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10471,7 +10485,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10490,7 +10504,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10498,7 +10512,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10517,7 +10531,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10538,7 +10552,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10559,7 +10573,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10580,7 +10594,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10601,7 +10615,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10747,8 +10761,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10774,8 +10788,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10845,7 +10859,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10945,7 +10959,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10953,7 +10967,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -10984,11 +10998,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11065,12 +11079,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11149,17 +11163,17 @@
         <f>Data!C6</f>
         <v>13229453</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>13229453</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>13229453</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11170,23 +11184,23 @@
         <f>Data!C8</f>
         <v>6586420</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.49786034237394394</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>6586420</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.49786034237394394</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>6586420</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.49786034237394394</v>
       </c>
@@ -11196,48 +11210,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>6643033</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>6643033</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>6643033</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>4425070</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.33448624066316274</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>4425070</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.33448624066316274</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>4425070</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.33448624066316274</v>
       </c>
@@ -11251,54 +11265,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>79594.666666666672</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>6.0164745032668145E-3</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>79594.666666666672</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>6.0164745032668145E-3</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>79594.666666666672</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>6.0164745032668145E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>2138368.3333333335</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.16163694245962654</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>2138368.3333333335</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.16163694245962654</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>2138368.3333333335</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.16163694245962654</v>
       </c>
@@ -11312,55 +11326,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>272971</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>2.063358175126364E-2</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>272971</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>2.063358175126364E-2</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>272971</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>2.063358175126364E-2</v>
       </c>
@@ -11368,29 +11382,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11400,27 +11414,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>1865397.3333333335</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.14100336070836289</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>1865397.3333333335</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.14100336070836289</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>1865397.3333333335</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.14100336070836289</v>
       </c>
@@ -11430,49 +11444,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>1399048</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>0.10575252053127215</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>1399048</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>0.10575252053127215</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>1399048</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>0.10575252053127215</v>
       </c>
@@ -11482,69 +11496,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.30609506537065306</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.30609506537065306</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.30609506537065306</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9038837203678233E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>7.0318484149931443E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9038837203678233E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>7.0318484149931443E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9038837203678233E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>7.0318484149931443E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.16770000000000002</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.54786900859355803</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.16770000000000002</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.54786900859355803</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.16770000000000002</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.54786900859355803</v>
       </c>
@@ -11552,23 +11566,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.782423929323124E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>3.8525318197024767E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.782423929323124E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>3.8525318197024767E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.782423929323124E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>3.8525318197024767E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11590,7 +11604,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11613,27 +11627,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8968906807349812</v>
+        <v>6.9326886880937915</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8968906807349812</v>
+        <v>6.9326886880937915</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11641,27 +11655,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2582297929302761</v>
+        <v>3.2666209875223666</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2582297929302761</v>
+        <v>3.2666209875223666</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11675,25 +11689,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11704,21 +11718,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>15672577.539369388</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>15753925.362911528</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.4289735923570182</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>3.4467715287858556</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.4289735923570182</v>
-      </c>
-      <c r="I97" s="123">
+        <v>3.4467715287858556</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.5604153097245899</v>
+        <v>4.5840859445619326</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11730,14 +11744,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11748,17 +11762,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11767,27 +11781,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>15672577.539369388</v>
+        <v>15753925.362911528</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9146275535034651</v>
+        <v>2.9297557994679773</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.4289735923570182</v>
+        <v>3.4467715287858556</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.4289735923570182</v>
+        <v>3.4467715287858556</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.4289735923570182</v>
+        <v>3.4467715287858556</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.5604153097245899</v>
+        <v>4.5840859445619326</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11799,25 +11813,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11828,27 +11842,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7404040.6662414121</v>
+        <v>7423108.9180059088</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3769286436055932</v>
-      </c>
-      <c r="E103" s="123">
+        <v>1.3804747643282589</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.6199160513006978</v>
+        <v>1.6240879580332459</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.6199160513006978</v>
-      </c>
-      <c r="H103" s="123">
+        <v>1.6240879580332459</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.6199160513006978</v>
+        <v>1.6240879580332459</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1544318618511933</v>
+        <v>2.159980352331337</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11860,25 +11874,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11889,27 +11903,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>11538309.1028054</v>
+        <v>11588517.140458718</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.1457780985545289</v>
-      </c>
-      <c r="E106" s="123">
+        <v>2.1551152818981181</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>2.5244448218288582</v>
+        <v>2.5354297434095505</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.5244448218288582</v>
-      </c>
-      <c r="H106" s="123">
+        <v>2.5354297434095505</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>2.5244448218288582</v>
-      </c>
-      <c r="I106" s="123">
+        <v>2.5354297434095505</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>3.3574235857878918</v>
+        <v>3.3720331484466346</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11920,14 +11934,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F056CB86-84D3-48C5-B9FF-0ACD590AEE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B96D12C-A2D0-4A66-B600-C40B88A0EC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3263,9 +3263,7 @@
       <c r="B37" s="94" t="s">
         <v>262</v>
       </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3329,9 +3327,7 @@
       <c r="B41" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3347,9 +3343,7 @@
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -3405,11 +3399,11 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.8525318197024767E-2</v>
+        <v>3.8774272443412187E-2</v>
       </c>
       <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7905053682224715E-2</v>
+        <v>3.8149999720709656E-2</v>
       </c>
       <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4148,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>4.6500000000000004</v>
+        <v>4.62</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>274</v>
@@ -4189,7 +4183,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>21253.440306600001</v>
+        <v>21116.321336880002</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4238,7 +4232,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4421,7 +4415,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.221011901619255</v>
+        <v>14.129704416585172</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4453,7 +4447,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.8525318197024767E-2</v>
+        <v>3.8774272443412187E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4483,20 +4477,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9297557994679773</v>
+        <v>2.9358886048652573</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>5.2716988362462223</v>
+        <v>5.2827339891015006</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.4467715287858556</v>
+        <v>3.4539865939591263</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5840859445619326</v>
+        <v>4.5936817296534791</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11519,17 +11513,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0318484149931443E-2</v>
+        <v>7.0772888838794068E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0318484149931443E-2</v>
+        <v>7.0772888838794068E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0318484149931443E-2</v>
+        <v>7.0772888838794068E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11570,17 +11564,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8525318197024767E-2</v>
+        <v>3.8774272443412187E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8525318197024767E-2</v>
+        <v>3.8774272443412187E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8525318197024767E-2</v>
+        <v>3.8774272443412187E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11640,14 +11634,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.9326886880937915</v>
+        <v>6.9472007612883306</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.9326886880937915</v>
+        <v>6.9472007612883306</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11668,14 +11662,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2666209875223666</v>
+        <v>3.2704361492944618</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2666209875223666</v>
+        <v>3.2704361492944618</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11718,21 +11712,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>15753925.362911528</v>
+        <v>15786902.773012245</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.4467715287858556</v>
+        <v>3.4539865939591263</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.4467715287858556</v>
+        <v>3.4539865939591263</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.5840859445619326</v>
+        <v>4.5936817296534791</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11781,27 +11775,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>15753925.362911528</v>
+        <v>15786902.773012245</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9297557994679773</v>
+        <v>2.9358886048652573</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.4467715287858556</v>
+        <v>3.4539865939591263</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>3.4467715287858556</v>
+        <v>3.4539865939591263</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.4467715287858556</v>
+        <v>3.4539865939591263</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.5840859445619326</v>
+        <v>4.5936817296534791</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11842,27 +11836,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7423108.9180059088</v>
+        <v>7431778.5376165863</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3804747643282589</v>
+        <v>1.3820870525515714</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.6240879580332459</v>
+        <v>1.625984767707731</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.6240879580332459</v>
+        <v>1.625984767707731</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.6240879580332459</v>
+        <v>1.625984767707731</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.159980352331337</v>
+        <v>2.1625030430567587</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11903,27 +11897,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>11588517.140458718</v>
+        <v>11609340.655314416</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.1551152818981181</v>
+        <v>2.1589878287084145</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>2.5354297434095505</v>
+        <v>2.5399856808334285</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.5354297434095505</v>
+        <v>2.5399856808334285</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>2.5354297434095505</v>
+        <v>2.5399856808334285</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>3.3720331484466346</v>
+        <v>3.3780923863551191</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B96D12C-A2D0-4A66-B600-C40B88A0EC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{236D6BAD-5204-4955-8110-96857A3742EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,10 +961,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -989,6 +978,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1681,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1832,7 +1829,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2022,9 +2018,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2360,6 +2353,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2815,7 +2809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2829,172 +2823,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>4570632324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>4570632324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
+      <c r="C14" s="214">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>243</v>
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>228</v>
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>228</v>
+      <c r="C19" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>228</v>
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>228</v>
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>241</v>
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
+        <v>239</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3042,805 +3036,806 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>13229453</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>13747473</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="149">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
         <v>6586420</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D26" s="148">
         <v>6441741</v>
       </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="149">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
         <f>2582237+1249983</f>
         <v>3832220</v>
       </c>
-      <c r="D27" s="149">
+      <c r="D27" s="148">
         <f>2536450+1122577</f>
         <v>3659027</v>
       </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="148">
+        <v>592850</v>
+      </c>
+      <c r="D28" s="148">
+        <v>556442</v>
+      </c>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
+        <v>272971</v>
+      </c>
+      <c r="D29" s="148">
+        <v>191401</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>59696</v>
+      </c>
+      <c r="D30" s="148">
+        <v>186057</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149">
-        <v>592850</v>
-      </c>
-      <c r="D28" s="149">
-        <v>556442</v>
-      </c>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
-        <v>272971</v>
-      </c>
-      <c r="D29" s="149">
-        <v>191401</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>59696</v>
-      </c>
-      <c r="D30" s="149">
-        <v>186057</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.0943+0.0734</f>
         <v>0.16770000000000002</v>
       </c>
-      <c r="D44" s="247">
+      <c r="D44" s="245">
         <f>0.079+0.086</f>
         <v>0.16499999999999998</v>
       </c>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.8774272443412187E-2</v>
-      </c>
-      <c r="D45" s="151">
+        <v>3.9019174043389449E-2</v>
+      </c>
+      <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.8149999720709656E-2</v>
-      </c>
-      <c r="E45" s="151" t="str">
+        <v>3.8390958361116626E-2</v>
+      </c>
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>264</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>265</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3849,166 +3844,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>13229453</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>13229453</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>13229453</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>6586420</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.49786034237394394</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>6586420</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>6586420</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>4425070</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.33448624066316274</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>4425070</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>4425070</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>272971</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>2.063358175126364E-2</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>272971</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>79594.666666666672</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>6.0164745032668145E-3</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>79594.666666666672</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.16770000000000002</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.16770000000000002</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.16770000000000002</v>
       </c>
@@ -4021,32 +4016,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4105,13 +4100,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4122,82 +4117,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>1066.HK : 威高股份</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>1066.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>4.62</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>274</v>
+      <c r="G3" s="130">
+        <v>4.59</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>威高股份</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>4570632324</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>21116.321336880002</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>20979.20236716</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4208,31 +4203,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0007</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4241,280 +4236,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.16163694245962654</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>2.063358175126364E-2</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.129704416585172</v>
+        <v>14.041020140106653</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.54786900859355803</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.8774272443412187E-2</v>
+        <v>3.9019174043389449E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9358886048652573</v>
-      </c>
-      <c r="D29" s="128">
+        <v>2.9413792005560779</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>5.2827339891015006</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>5.2926135725530816</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.4539865939591263</v>
-      </c>
-      <c r="G29" s="286">
+        <v>3.4604461183012685</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.5936817296534791</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>4.6022726717852889</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4522,9 +4517,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4532,17 +4527,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4550,26 +4545,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4577,9 +4572,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4592,16 +4587,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5553,10 +5548,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5582,59 +5577,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>2138368.3333333335</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5642,19 +5637,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5703,928 +5698,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>13229453</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>13747473</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>-3.7681106920522733E-2</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>6586420</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>6441741</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>6643033</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>7305732</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>3832220</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>3659027</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>592850</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="196">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>556442</v>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>79594.666666666672</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>248076</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.16163694245962654</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.20674250460430074</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>2138368.3333333335</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>2842187</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.24763277949926113</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>272971</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>191401</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>1865397.3333333335</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>2650786</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.10575252053127215</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>0.14461490486287917</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>1399048</v>
       </c>
@@ -6668,63 +6663,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.29628520245190171</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6770,11 +6765,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6821,266 +6816,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>262</v>
+      <c r="B30" s="93" t="s">
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7127,165 +7122,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7331,63 +7326,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7400,372 +7395,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.49786034237394394</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.46857637036275684</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.33448624066316274</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.30663591774284626</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.063358175126364E-2</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>1.3922631453795182E-2</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>6.0164745032668145E-3</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>1.8045207290096149E-2</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.14100336070836289</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>0.19281987315050556</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>266</v>
+      <c r="B47" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>263</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7777,216 +7772,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>249</v>
+      <c r="B52" s="101" t="s">
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8002,350 +7997,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.14633397138625692</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>7.2205376065815952E-2</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9624,7 +9619,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9642,7 +9637,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9660,25 +9655,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
@@ -9686,12 +9681,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9699,28 +9694,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9733,7 +9728,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>0</v>
@@ -9742,16 +9737,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9759,7 +9754,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9769,287 +9764,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10060,21 +10055,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10087,45 +10082,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10133,17 +10128,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10153,19 +10148,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10175,17 +10170,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10194,7 +10189,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10204,17 +10199,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10227,7 +10222,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10237,17 +10232,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10274,12 +10269,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10289,171 +10284,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10461,25 +10456,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10487,26 +10482,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10514,113 +10509,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10628,17 +10623,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10648,16 +10643,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10667,16 +10662,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10686,14 +10681,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10706,7 +10701,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10716,14 +10711,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10736,13 +10731,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10750,12 +10745,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10766,63 +10761,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D49" s="56" t="e">
         <f>E49/C49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10830,45 +10825,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10876,61 +10871,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10944,35 +10939,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -10986,29 +10981,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11022,9 +11017,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11032,28 +11027,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11067,29 +11062,29 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>0</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11103,29 +11098,29 @@
         <f>E68-E69</f>
         <v>0</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11135,66 +11130,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>13229453</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>13229453</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>13229453</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>6586420</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.49786034237394394</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>6586420</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.49786034237394394</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>6586420</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.49786034237394394</v>
       </c>
@@ -11202,50 +11197,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>6643033</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>6643033</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>6643033</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>4425070</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.33448624066316274</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>4425070</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.33448624066316274</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>4425070</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.33448624066316274</v>
       </c>
@@ -11253,60 +11248,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>79594.666666666672</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>6.0164745032668145E-3</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>79594.666666666672</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>6.0164745032668145E-3</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>79594.666666666672</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>6.0164745032668145E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>2138368.3333333335</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.16163694245962654</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>2138368.3333333335</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.16163694245962654</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>2138368.3333333335</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.16163694245962654</v>
       </c>
@@ -11314,61 +11309,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>272971</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>2.063358175126364E-2</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>272971</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>2.063358175126364E-2</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>272971</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>2.063358175126364E-2</v>
       </c>
@@ -11376,59 +11371,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>1865397.3333333335</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.14100336070836289</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>1865397.3333333335</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.14100336070836289</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>1865397.3333333335</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.14100336070836289</v>
       </c>
@@ -11436,184 +11431,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>1399048</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>0.10575252053127215</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>1399048</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>0.10575252053127215</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>1399048</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>0.10575252053127215</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.30609506537065306</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.30609506537065306</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.30609506537065306</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0772888838794068E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>7.1219896419321291E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0772888838794068E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>7.1219896419321291E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0772888838794068E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>7.1219896419321291E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.16770000000000002</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.54786900859355803</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.16770000000000002</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.54786900859355803</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.16770000000000002</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.54786900859355803</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8774272443412187E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>3.9019174043389449E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8774272443412187E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>3.9019174043389449E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8774272443412187E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>3.9019174043389449E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11621,55 +11616,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.9472007612883306</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>6.9601931720017296</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.9472007612883306</v>
+        <v>6.9601931720017296</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2704361492944618</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>3.2735779400698313</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2704361492944618</v>
+        <v>3.2735779400698313</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11679,123 +11674,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>15786902.773012245</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>15816426.883768106</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.4539865939591263</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>3.4604461183012685</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.4539865939591263</v>
-      </c>
-      <c r="I97" s="122">
+        <v>3.4604461183012685</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.5936817296534791</v>
+        <v>4.6022726717852889</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>15786902.773012245</v>
-      </c>
-      <c r="D100" s="109">
+        <v>15816426.883768106</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9358886048652573</v>
-      </c>
-      <c r="E100" s="109">
+        <v>2.9413792005560779</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.4539865939591263</v>
-      </c>
-      <c r="F100" s="109">
+        <v>3.4604461183012685</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>3.4539865939591263</v>
-      </c>
-      <c r="H100" s="109">
+        <v>3.4604461183012685</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.4539865939591263</v>
-      </c>
-      <c r="I100" s="109">
+        <v>3.4604461183012685</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.5936817296534791</v>
+        <v>4.6022726717852889</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11805,58 +11800,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7431778.5376165863</v>
-      </c>
-      <c r="D103" s="109">
+        <v>7438917.9808554072</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3820870525515714</v>
-      </c>
-      <c r="E103" s="122">
+        <v>1.3834147740401566</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.625984767707731</v>
-      </c>
-      <c r="F103" s="109">
+        <v>1.6275467929884195</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.625984767707731</v>
-      </c>
-      <c r="H103" s="122">
+        <v>1.6275467929884195</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.625984767707731</v>
-      </c>
-      <c r="I103" s="109">
+        <v>1.6275467929884195</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1625030430567587</v>
+        <v>2.1645804822123433</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11866,58 +11861,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>11609340.655314416</v>
-      </c>
-      <c r="D106" s="109">
+        <v>11627672.432311757</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>2.1589878287084145</v>
-      </c>
-      <c r="E106" s="122">
+        <v>2.1623969872981172</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>2.5399856808334285</v>
-      </c>
-      <c r="F106" s="109">
+        <v>2.543996455644844</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>2.5399856808334285</v>
-      </c>
-      <c r="H106" s="122">
+        <v>2.543996455644844</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>2.5399856808334285</v>
-      </c>
-      <c r="I106" s="122">
+        <v>2.543996455644844</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>3.3780923863551191</v>
+        <v>3.3834265769988159</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11926,15 +11921,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{236D6BAD-5204-4955-8110-96857A3742EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE1CE685-2ABA-4425-8931-DB3D5C6CB96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -986,6 +986,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1689,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2333,9 +2341,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2344,9 +2349,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2354,6 +2356,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2809,7 +2823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2831,7 +2845,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2839,7 +2853,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2863,7 +2877,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2872,7 +2886,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2888,7 +2902,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2931,6 +2945,9 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
@@ -3393,11 +3410,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.9019174043389449E-2</v>
+        <v>3.8912562025629968E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.8390958361116626E-2</v>
+        <v>3.8286062815914984E-2</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3826,11 +3843,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3844,10 +3861,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4069,8 +4086,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4083,8 +4103,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4127,60 +4147,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>1066.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>4.59</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>威高股份</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>4570632324</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>20979.20236716</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>21024.908690399996</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4203,11 +4223,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4227,7 +4247,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4348,7 +4368,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4360,20 +4380,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>255</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.16163694245962654</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4382,12 +4402,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.16163694245962654</v>
+      <c r="B23" s="275" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
@@ -4398,10 +4418,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>2.063358175126364E-2</v>
       </c>
@@ -4410,7 +4430,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.041020140106653</v>
+        <v>14.07948950348479</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4442,7 +4462,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.9019174043389449E-2</v>
+        <v>3.8912562025629968E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4461,10 +4481,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4472,22 +4492,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9413792005560779</v>
+        <v>2.937064062476701</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>5.2926135725530816</v>
+        <v>5.2848490659019047</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.4604461183012685</v>
-      </c>
-      <c r="G29" s="285">
+        <v>3.4553694852667074</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.6022726717852889</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>4.595520926871222</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5518,7 +5538,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7759,7 +7779,7 @@
       <c r="B47" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>263</v>
       </c>
       <c r="D47" s="36"/>
@@ -9686,7 +9706,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -10733,7 +10753,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10750,7 +10770,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10859,11 +10879,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10874,11 +10894,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10890,11 +10910,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11108,19 +11128,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11130,18 +11150,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11508,17 +11528,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1219896419321291E-2</v>
+        <v>7.1025302426802606E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1219896419321291E-2</v>
+        <v>7.1025302426802606E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1219896419321291E-2</v>
+        <v>7.1025302426802606E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11559,17 +11579,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9019174043389449E-2</v>
+        <v>3.8912562025629968E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9019174043389449E-2</v>
+        <v>3.8912562025629968E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9019174043389449E-2</v>
+        <v>3.8912562025629968E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11600,15 +11620,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11629,14 +11649,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.9601931720017296</v>
+        <v>6.9499822496593655</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.9601931720017296</v>
+        <v>6.9499822496593655</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11657,14 +11677,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2735779400698313</v>
+        <v>3.2700678429670496</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2735779400698313</v>
+        <v>3.2700678429670496</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11707,21 +11727,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>15816426.883768106</v>
+        <v>15793223.460723255</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.4604461183012685</v>
+        <v>3.4553694852667074</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.4604461183012685</v>
+        <v>3.4553694852667074</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.6022726717852889</v>
+        <v>4.595520926871222</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11770,27 +11790,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>15816426.883768106</v>
+        <v>15793223.460723255</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9413792005560779</v>
+        <v>2.937064062476701</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.4604461183012685</v>
+        <v>3.4553694852667074</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>3.4604461183012685</v>
+        <v>3.4553694852667074</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.4604461183012685</v>
+        <v>3.4553694852667074</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.6022726717852889</v>
+        <v>4.595520926871222</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11831,27 +11851,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7438917.9808554072</v>
+        <v>7430941.5938774711</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3834147740401566</v>
+        <v>1.3819314062147368</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.6275467929884195</v>
+        <v>1.6258016543702785</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.6275467929884195</v>
+        <v>1.6258016543702785</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.6275467929884195</v>
+        <v>1.6258016543702785</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1645804822123433</v>
+        <v>2.1622595087030985</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11892,27 +11912,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>11627672.432311757</v>
+        <v>11612082.527300363</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>2.1623969872981172</v>
+        <v>2.1594977343457189</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>2.543996455644844</v>
+        <v>2.5405855698184929</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>2.543996455644844</v>
+        <v>2.5405855698184929</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>2.543996455644844</v>
+        <v>2.5405855698184929</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>3.3834265769988159</v>
+        <v>3.37889021778716</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE1CE685-2ABA-4425-8931-DB3D5C6CB96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56ADDF10-DC09-46E0-A13B-BA74A6FD6803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3410,11 +3410,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.8912562025629968E-2</v>
+        <v>3.9538293765709477E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.8286062815914984E-2</v>
+        <v>3.8901720163041512E-2</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4157,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>4.5999999999999996</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>275</v>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>21024.908690399996</v>
+        <v>20659.258104479999</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4247,7 +4247,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.07948950348479</v>
+        <v>13.856667964481321</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.8912562025629968E-2</v>
+        <v>3.9538293765709477E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4492,20 +4492,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.937064062476701</v>
+        <v>2.9480612334004257</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>5.2848490659019047</v>
+        <v>5.3046369858272193</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.4553694852667074</v>
+        <v>3.4683073334122656</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.595520926871222</v>
+        <v>4.6127278137627998</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9657,7 +9657,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11528,17 +11528,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1025302426802606E-2</v>
+        <v>7.2167421674769971E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1025302426802606E-2</v>
+        <v>7.2167421674769971E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1025302426802606E-2</v>
+        <v>7.2167421674769971E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11579,17 +11579,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8912562025629968E-2</v>
+        <v>3.9538293765709477E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8912562025629968E-2</v>
+        <v>3.9538293765709477E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8912562025629968E-2</v>
+        <v>3.9538293765709477E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11649,14 +11649,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.9499822496593655</v>
+        <v>6.9760048835177173</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.9499822496593655</v>
+        <v>6.9760048835177173</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11677,14 +11677,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2700678429670496</v>
+        <v>3.2747106861135289</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2700678429670496</v>
+        <v>3.2747106861135289</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11727,21 +11727,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>15793223.460723255</v>
+        <v>15852357.607660348</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.4553694852667074</v>
+        <v>3.4683073334122656</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.4553694852667074</v>
+        <v>3.4683073334122656</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.595520926871222</v>
+        <v>4.6127278137627998</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11768,7 +11768,7 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D99" s="209"/>
@@ -11790,27 +11790,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>15793223.460723255</v>
+        <v>15852357.607660348</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.937064062476701</v>
+        <v>2.9480612334004257</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.4553694852667074</v>
+        <v>3.4683073334122656</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>3.4553694852667074</v>
+        <v>3.4683073334122656</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.4553694852667074</v>
+        <v>3.4683073334122656</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.595520926871222</v>
+        <v>4.6127278137627998</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11851,27 +11851,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>7430941.5938774711</v>
+        <v>7441492.0466227327</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3819314062147368</v>
+        <v>1.3838934727730952</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.6258016543702785</v>
+        <v>1.6281099679683473</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.6258016543702785</v>
+        <v>1.6281099679683473</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.6258016543702785</v>
+        <v>1.6281099679683473</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1622595087030985</v>
+        <v>2.1653294852977685</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11912,27 +11912,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>11612082.527300363</v>
+        <v>11646924.827141538</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>2.1594977343457189</v>
+        <v>2.1659773530867605</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>2.5405855698184929</v>
+        <v>2.5482086506903063</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>2.5405855698184929</v>
+        <v>2.5482086506903063</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>2.5405855698184929</v>
+        <v>2.5482086506903063</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>3.37889021778716</v>
+        <v>3.3890286495302844</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11D2A5A1-4B8C-49BB-A6B2-6D6F3D2ACA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C88544F-C3AD-415B-9F5E-39E36C05C6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3623,11 +3623,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.8955575420346326E-2</v>
+        <v>3.9733931752780505E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.8328383687281711E-2</v>
+        <v>3.909420834352284E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4370,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>4.58</v>
+        <v>4.49</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>20933.49604392</v>
+        <v>20522.139134760004</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4460,7 +4460,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4591,7 +4591,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.063943419698747</v>
+        <v>13.78844187890415</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.8955575420346326E-2</v>
+        <v>3.9733931752780505E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4710,20 +4710,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.3759234110481082</v>
+        <v>2.9478889525379866</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>5.419705056665495</v>
+        <v>5.3043269897442036</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.9716746012330684</v>
+        <v>3.4681046500446904</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.7127870057960832</v>
+        <v>4.6124582519514821</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11760,17 +11760,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1103812789757387E-2</v>
+        <v>7.2524510657724583E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1103812789757387E-2</v>
+        <v>7.2524510657724583E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1103812789757387E-2</v>
+        <v>7.2524510657724583E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11811,17 +11811,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8955575420346326E-2</v>
+        <v>3.9733931752780505E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8955575420346326E-2</v>
+        <v>3.9733931752780505E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8955575420346326E-2</v>
+        <v>3.9733931752780505E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11874,21 +11874,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.040420609150341</v>
+        <v>6.9755972148695582</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.040420609150341</v>
+        <v>6.9755972148695582</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11909,14 +11909,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0202309464297228</v>
+        <v>3.2721491173818884</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0202309464297228</v>
+        <v>3.2721491173818884</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11959,21 +11959,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>18153064.312805671</v>
+        <v>15851431.21650897</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9716746012330684</v>
+        <v>3.4681046500446904</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9716746012330684</v>
+        <v>3.4681046500446904</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7127870057960832</v>
+        <v>4.6124582519514821</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12023,23 +12023,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.3759234110481082</v>
+        <v>2.9478889525379866</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.9716746012330684</v>
+        <v>3.4681046500446904</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>3.9716746012330684</v>
+        <v>3.4681046500446904</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>3.9716746012330684</v>
+        <v>3.4681046500446904</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.7127870057960832</v>
+        <v>4.6124582519514821</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12078,23 +12078,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.6879732420253244</v>
+        <v>1.3828109532507418</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.9858508729709698</v>
+        <v>1.626836415589108</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.9858508729709698</v>
+        <v>1.626836415589108</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.9858508729709698</v>
+        <v>1.626836415589108</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.3564096078467203</v>
+        <v>2.1636357050420778</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12133,23 +12133,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>2.5319483265367162</v>
+        <v>2.1653499528943643</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>2.9787627371020191</v>
+        <v>2.5474705328168992</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>2.9787627371020191</v>
+        <v>2.5474705328168992</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>2.9787627371020191</v>
+        <v>2.5474705328168992</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>3.534598306821402</v>
+        <v>3.3880469784967797</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C88544F-C3AD-415B-9F5E-39E36C05C6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C995BA6B-6830-4368-B480-257AD72E53E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2585,6 +2585,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2601,9 +2604,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2817,11 +2817,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3036,7 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3061,6 +3061,7 @@
       <c r="C4" s="66" t="s">
         <v>282</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3623,11 +3624,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.9733931752780505E-2</v>
+        <v>3.9038370584241672E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.909420834352284E-2</v>
+        <v>3.840984583422704E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4275,7 +4276,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4298,6 +4299,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4316,8 +4320,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4353,24 +4357,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>1066.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>4.49</v>
+        <v>4.57</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4380,7 +4387,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>威高股份</v>
       </c>
@@ -4409,11 +4416,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>20522.139134760004</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>20887.789720680001</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4436,11 +4443,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4508,10 +4515,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4558,7 +4565,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4648,7 +4655,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.78844187890415</v>
+        <v>14.034115676301106</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4680,7 +4687,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.9733931752780505E-2</v>
+        <v>3.9038370584241672E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4699,10 +4706,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4710,22 +4717,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.9478889525379866</v>
+        <v>3.2089996929471249</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>5.3043269897442036</v>
+        <v>5.929443509595294</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.4681046500446904</v>
-      </c>
-      <c r="G29" s="312">
+        <v>3.7752937564083826</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.6124582519514821</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>5.1560378344306912</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5707,15 +5714,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5743,7 +5751,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11760,17 +11768,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2524510657724583E-2</v>
+        <v>7.1254934978814743E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2524510657724583E-2</v>
+        <v>7.1254934978814743E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.2524510657724583E-2</v>
+        <v>7.1254934978814743E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11811,17 +11819,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9733931752780505E-2</v>
+        <v>3.9038370584241672E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9733931752780505E-2</v>
+        <v>3.9038370584241672E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9733931752780505E-2</v>
+        <v>3.9038370584241672E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11870,7 +11878,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11881,14 +11889,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.9755972148695582</v>
+        <v>7.5934642318758723</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.9755972148695582</v>
+        <v>7.5934642318758723</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11909,14 +11917,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2721491173818884</v>
+        <v>3.5711692820359406</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.2721491173818884</v>
+        <v>3.5711692820359406</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11959,21 +11967,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>15851431.21650897</v>
+        <v>17255479.675635535</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.4681046500446904</v>
+        <v>3.7752937564083826</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.4681046500446904</v>
+        <v>3.7752937564083826</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.6124582519514821</v>
+        <v>5.1560378344306912</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12023,23 +12031,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.9478889525379866</v>
+        <v>3.2089996929471249</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.4681046500446904</v>
+        <v>3.7752937564083826</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>3.4681046500446904</v>
+        <v>3.7752937564083826</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>3.4681046500446904</v>
+        <v>3.7752937564083826</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.6124582519514821</v>
+        <v>5.1560378344306912</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12078,23 +12086,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3828109532507418</v>
+        <v>1.5091769421141417</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.626836415589108</v>
+        <v>1.7755022848401667</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.626836415589108</v>
+        <v>1.7755022848401667</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.626836415589108</v>
+        <v>1.7755022848401667</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1636357050420778</v>
+        <v>2.4248595066846415</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12133,23 +12141,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>2.1653499528943643</v>
+        <v>2.3590883175306332</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>2.5474705328168992</v>
+        <v>2.7753980206242748</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>2.5474705328168992</v>
+        <v>2.7753980206242748</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>2.5474705328168992</v>
+        <v>2.7753980206242748</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>3.3880469784967797</v>
+        <v>3.7904486705576663</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C995BA6B-6830-4368-B480-257AD72E53E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4907A1B4-8637-4EAE-AB49-0980FF6E1CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2585,31 +2585,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3624,11 +3624,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.9038370584241672E-2</v>
+        <v>3.9209967817579003E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.840984583422704E-2</v>
+        <v>3.8578680321410458E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4357,27 +4357,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>1066.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>4.57</v>
+        <v>4.55</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4387,40 +4387,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>威高股份</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>4570632324</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>20887.789720680001</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>20796.377074200002</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4443,11 +4443,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4598,7 +4598,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.034115676301106</v>
+        <v>13.972697226951865</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.9038370584241672E-2</v>
+        <v>3.9209967817579003E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4706,10 +4706,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4717,22 +4717,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.2089996929471249</v>
+        <v>3.4489151816702766</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>5.929443509595294</v>
+        <v>5.9876127593284574</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>3.7752937564083826</v>
-      </c>
-      <c r="G29" s="313">
+        <v>4.0575472725532666</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.1560378344306912</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>5.2066197907203984</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5715,15 +5715,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11096,7 +11096,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11107,11 +11107,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11123,11 +11123,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11768,17 +11768,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1254934978814743E-2</v>
+        <v>7.1568143484216126E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1254934978814743E-2</v>
+        <v>7.1568143484216126E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.1254934978814743E-2</v>
+        <v>7.1568143484216126E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11819,17 +11819,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9038370584241672E-2</v>
+        <v>3.9209967817579003E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9038370584241672E-2</v>
+        <v>3.9209967817579003E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9038370584241672E-2</v>
+        <v>3.9209967817579003E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11882,21 +11882,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5934642318758723</v>
+        <v>7.0966755393661147</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.5934642318758723</v>
+        <v>7.0966755393661147</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11917,14 +11917,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5711692820359406</v>
+        <v>3.4392656544232985</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5711692820359406</v>
+        <v>3.4392656544232985</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11967,21 +11967,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>17255479.675635535</v>
+        <v>18545556.720090002</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.7752937564083826</v>
+        <v>4.0575472725532666</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.7752937564083826</v>
+        <v>4.0575472725532666</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.1560378344306912</v>
+        <v>5.2066197907203984</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12031,23 +12031,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.2089996929471249</v>
+        <v>3.4489151816702766</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>3.7752937564083826</v>
+        <v>4.0575472725532666</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>3.7752937564083826</v>
+        <v>4.0575472725532666</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>3.7752937564083826</v>
+        <v>4.0575472725532666</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.1560378344306912</v>
+        <v>5.2066197907203984</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12086,23 +12086,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.5091769421141417</v>
+        <v>1.6714496053171934</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.7755022848401667</v>
+        <v>1.9664113003731689</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.7755022848401667</v>
+        <v>1.9664113003731689</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.7755022848401667</v>
+        <v>1.9664113003731689</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.4248595066846415</v>
+        <v>2.5232869281585844</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12141,23 +12141,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>2.3590883175306332</v>
+        <v>2.5601823934937351</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>2.7753980206242748</v>
+        <v>3.0119792864632178</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>2.7753980206242748</v>
+        <v>3.0119792864632178</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>2.7753980206242748</v>
+        <v>3.0119792864632178</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>3.7904486705576663</v>
+        <v>3.8649533594394914</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE2ADDE6-3292-438F-B9E1-8946768CBC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7CA0F8C-B846-46B8-83B8-6415623AF087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2598,6 +2598,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2614,9 +2617,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3647,11 +3647,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.9208740506853378E-2</v>
+        <v>4.0846948667303651E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.8577472770607073E-2</v>
+        <v>4.0189305486613598E-2</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4385,27 +4385,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>1066.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>4.55</v>
+        <v>4.37</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4415,7 +4415,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>威高股份</v>
       </c>
@@ -4444,11 +4444,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>20796.377074200002</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>19973.663255880001</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4471,11 +4471,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4495,7 +4495,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.973134599867977</v>
+        <v>13.412727914046251</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.9208740506853378E-2</v>
+        <v>4.0846948667303651E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4734,10 +4734,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4745,22 +4745,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.4775182077614879</v>
+        <v>3.5184949281354516</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>6.0484579636143403</v>
+        <v>6.1197288976142046</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.0911978914841036</v>
-      </c>
-      <c r="G29" s="313">
+        <v>4.1394057978064138</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.2595286640124703</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>5.3215033892297434</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5743,15 +5743,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11898,17 +11898,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.156590333062765E-2</v>
+        <v>7.4556049031067495E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.156590333062765E-2</v>
+        <v>7.4556049031067495E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.156590333062765E-2</v>
+        <v>7.4556049031067495E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11949,17 +11949,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9208740506853378E-2</v>
+        <v>4.0846948667303651E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9208740506853378E-2</v>
+        <v>4.0846948667303651E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9208740506853378E-2</v>
+        <v>4.0846948667303651E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12019,14 +12019,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.1555306821925173</v>
+        <v>7.2398466116496509</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.1555306821925173</v>
+        <v>7.2398466116496509</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12047,14 +12047,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.4678012700359782</v>
+        <v>3.4917030291863065</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.4678012700359782</v>
+        <v>3.4917030291863065</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12097,21 +12097,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>18699361.326697886</v>
+        <v>18919701.941607002</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.0911978914841036</v>
+        <v>4.1394057978064138</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.0911978914841036</v>
+        <v>4.1394057978064138</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.2595286640124703</v>
+        <v>5.3215033892297434</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12161,23 +12161,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.4775182077614879</v>
+        <v>3.5184949281354516</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.0911978914841036</v>
+        <v>4.1394057978064138</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>4.0911978914841036</v>
+        <v>4.1394057978064138</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.0911978914841036</v>
+        <v>4.1394057978064138</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.2595286640124703</v>
+        <v>5.3215033892297434</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12216,23 +12216,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.6853176365325064</v>
+        <v>1.6969336586466524</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.9827266312147136</v>
+        <v>1.996392539584297</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>1.9827266312147136</v>
+        <v>1.996392539584297</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.9827266312147136</v>
+        <v>1.996392539584297</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.5489374570418986</v>
+        <v>2.5665059635517409</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12271,23 +12271,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>2.5814179221469971</v>
+        <v>2.607714293391052</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>3.0369622613494087</v>
+        <v>3.0678991686953552</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>3.0369622613494087</v>
+        <v>3.0678991686953552</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>3.0369622613494087</v>
+        <v>3.0678991686953552</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>3.9042330605271847</v>
+        <v>3.9440046763907421</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1066.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1066.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7CA0F8C-B846-46B8-83B8-6415623AF087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13DAF595-8775-43C0-865E-9A74ECE08171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2598,31 +2598,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3647,11 +3647,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.0846948667303651E-2</v>
+        <v>4.2584794118073574E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.0189305486613598E-2</v>
+        <v>4.1899171314741426E-2</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4385,27 +4385,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>1066.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>4.37</v>
+        <v>4.18</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4415,40 +4415,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>威高股份</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>4570632324</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>19973.663255880001</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>19105.243114320001</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4471,11 +4471,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4495,7 +4495,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.412727914046251</v>
+        <v>12.865367085596283</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.0846948667303651E-2</v>
+        <v>4.2584794118073574E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4734,10 +4734,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4745,22 +4745,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.5184949281354516</v>
+        <v>3.5503173257059162</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>6.1197288976142046</v>
+        <v>6.175077690203354</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.1394057978064138</v>
-      </c>
-      <c r="G29" s="314">
+        <v>4.1768439125951957</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.3215033892297434</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>5.3696327740898733</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5743,15 +5743,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11226,7 +11226,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11237,11 +11237,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11253,11 +11253,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11898,17 +11898,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4556049031067495E-2</v>
+        <v>7.7728058076133158E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4556049031067495E-2</v>
+        <v>7.7728058076133158E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.4556049031067495E-2</v>
+        <v>7.7728058076133158E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11949,17 +11949,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0846948667303651E-2</v>
+        <v>4.2584794118073574E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0846948667303651E-2</v>
+        <v>4.2584794118073574E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0846948667303651E-2</v>
+        <v>4.2584794118073574E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12019,14 +12019,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2398466116496509</v>
+        <v>7.305326108403448</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2398466116496509</v>
+        <v>7.305326108403448</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12047,14 +12047,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.4917030291863065</v>
+        <v>3.5052994886325957</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.4917030291863065</v>
+        <v>3.5052994886325957</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12097,21 +12097,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>18919701.941607002</v>
+        <v>19090817.799210232</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.1394057978064138</v>
+        <v>4.1768439125951957</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.1394057978064138</v>
+        <v>4.1768439125951957</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.3215033892297434</v>
+        <v>5.3696327740898733</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12161,23 +12161,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.5184949281354516</v>
+        <v>3.5503173257059162</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.1394057978064138</v>
+        <v>4.1768439125951957</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>4.1394057978064138</v>
+        <v>4.1768439125951957</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.1394057978064138</v>
+        <v>4.1768439125951957</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.3215033892297434</v>
+        <v>5.3696327740898733</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12216,23 +12216,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.6969336586466524</v>
+        <v>1.7035414054910936</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.996392539584297</v>
+        <v>2.0041663594012866</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>1.996392539584297</v>
+        <v>2.0041663594012866</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.996392539584297</v>
+        <v>2.0041663594012866</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.5665059635517409</v>
+        <v>2.5764997671370997</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12271,23 +12271,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>2.607714293391052</v>
+        <v>2.6269293655985049</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>3.0678991686953552</v>
+        <v>3.0905051359982414</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>3.0678991686953552</v>
+        <v>3.0905051359982414</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>3.0678991686953552</v>
+        <v>3.0905051359982414</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>3.9440046763907421</v>
+        <v>3.9730662706134865</v>
       </c>
       <c r="K106" s="75"/>
     </row>
